--- a/sentences.xlsx
+++ b/sentences.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="162">
   <si>
     <t>Structure</t>
   </si>
@@ -222,9 +222,6 @@
     <t xml:space="preserve"> - educated(X) :- ...</t>
   </si>
   <si>
-    <t xml:space="preserve"> :- ...</t>
-  </si>
-  <si>
     <t>... :- person(roberta).</t>
   </si>
   <si>
@@ -247,9 +244,6 @@
   </si>
   <si>
     <t>... :- not tall(roberta).</t>
-  </si>
-  <si>
-    <t>... :-</t>
   </si>
   <si>
     <t>Variable is Adjective.</t>
@@ -558,6 +552,147 @@
   </si>
   <si>
     <t>... :- not work_for(roberta, X), person(X).</t>
+  </si>
+  <si>
+    <t>pNounVerbACNounAsPNoun</t>
+  </si>
+  <si>
+    <t>[a] PNoun Verb a CNoun as [a] Pnoun.</t>
+  </si>
+  <si>
+    <t>[a] Pnoun not Verb a CNoun as [a] Pnoun.</t>
+  </si>
+  <si>
+    <t>Roberta holds a job as a nurse.</t>
+  </si>
+  <si>
+    <t>Roberta does not hold a job as a nurse.</t>
+  </si>
+  <si>
+    <r>
+      <t>.* a .* as .*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>\\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.$</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> - hold(roberta, nurse) :- ...</t>
+  </si>
+  <si>
+    <t>hold(roberta, nurse) :- ...</t>
+  </si>
+  <si>
+    <t>... :- hold(roberta, nurse), job(nurse).</t>
+  </si>
+  <si>
+    <t>... :- not hold(roberta, nurse), job(nurse).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">there is(n't | n't | not | )a .* [a-z] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>\\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.$</t>
+    </r>
+  </si>
+  <si>
+    <t>thereIsACNounVariable</t>
+  </si>
+  <si>
+    <t>there is a CNoun Variable.</t>
+  </si>
+  <si>
+    <t>there is not a CNoun Variable.</t>
+  </si>
+  <si>
+    <t>There is a person X.</t>
+  </si>
+  <si>
+    <t>There is not a person X.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - person(X) :- ...</t>
+  </si>
+  <si>
+    <t>... :- not person(X).</t>
+  </si>
+  <si>
+    <t>... :- person(X).</t>
+  </si>
+  <si>
+    <t>... :- #count{Y : hold(X, Y)} &gt; 2.</t>
+  </si>
+  <si>
+    <t>cNounVariableVerbMoreLessThanNumberCNounVariable</t>
+  </si>
+  <si>
+    <r>
+      <t>.* (more|less) than .*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>\\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.$</t>
+    </r>
+  </si>
+  <si>
+    <t>CNoun Variable Verb more than Number CNoun Variable.</t>
+  </si>
+  <si>
+    <t>CNoun Variable Verb less than Number CNoun Variable.</t>
+  </si>
+  <si>
+    <t>Person X holds more than two jobs Y.</t>
+  </si>
+  <si>
+    <t>... :- #count{Y : hold(X, Y)} &lt; 2.</t>
+  </si>
+  <si>
+    <t>Person X holds less than two jobs Y.</t>
   </si>
 </sst>
 </file>
@@ -642,8 +777,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -691,7 +832,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -710,6 +851,9 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -728,6 +872,9 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1003,18 +1150,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H31"/>
+  <dimension ref="A3:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.6640625" bestFit="1" customWidth="1"/>
@@ -1064,10 +1211,10 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1090,10 +1237,10 @@
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1208,10 +1355,10 @@
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1234,10 +1381,10 @@
         <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1245,7 +1392,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -1254,13 +1401,13 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s">
         <v>63</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>65</v>
-      </c>
-      <c r="H12" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1268,7 +1415,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
@@ -1277,13 +1424,13 @@
         <v>13</v>
       </c>
       <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" t="s">
         <v>64</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>66</v>
-      </c>
-      <c r="H13" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1336,46 +1483,46 @@
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
-        <v>73</v>
+      <c r="B16" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="H16" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
-        <v>74</v>
+      <c r="B17" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="G17" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="H17" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1383,22 +1530,22 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="G18" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="H18" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1406,68 +1553,68 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" t="s">
         <v>78</v>
       </c>
-      <c r="E19" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" t="s">
-        <v>82</v>
-      </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" t="s">
-        <v>120</v>
+      <c r="B20" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" t="s">
         <v>79</v>
       </c>
-      <c r="D20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" t="s">
-        <v>122</v>
-      </c>
-      <c r="G20" t="s">
-        <v>127</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>124</v>
+      <c r="H20" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
-        <v>119</v>
+      <c r="B21" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="G21" t="s">
-        <v>126</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>125</v>
+        <v>80</v>
+      </c>
+      <c r="H21" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1475,22 +1622,22 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E22" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="G22" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="H22" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1498,22 +1645,22 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="G23" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="H23" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1521,97 +1668,91 @@
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E24" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
-      <c r="B25" t="s">
-        <v>130</v>
+      <c r="B25" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" t="s">
         <v>93</v>
       </c>
-      <c r="D25" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" t="s">
-        <v>132</v>
-      </c>
-      <c r="G25" t="s">
-        <v>136</v>
-      </c>
       <c r="H25" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
-      <c r="B26" t="s">
-        <v>98</v>
+      <c r="B26" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
-      </c>
-      <c r="F26" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G26" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="H26" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
-      <c r="B27" t="s">
-        <v>99</v>
+      <c r="B27" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
-      </c>
-      <c r="F27" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="G27" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="H27" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1619,25 +1760,25 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" t="s">
         <v>100</v>
       </c>
-      <c r="D28" t="s">
-        <v>101</v>
-      </c>
-      <c r="E28" t="s">
-        <v>110</v>
-      </c>
       <c r="F28" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G28" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="H28" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1645,41 +1786,157 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D29" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" t="s">
         <v>101</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" t="s">
+        <v>110</v>
+      </c>
+      <c r="H30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F29" t="s">
+      <c r="C31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" t="s">
         <v>114</v>
       </c>
-      <c r="G29" t="s">
-        <v>115</v>
-      </c>
-      <c r="H29" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G30" t="s">
-        <v>60</v>
-      </c>
-      <c r="H30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>112</v>
+      </c>
       <c r="G31" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" t="s">
+        <v>149</v>
+      </c>
+      <c r="G32" t="s">
+        <v>153</v>
+      </c>
+      <c r="H32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" t="s">
+        <v>150</v>
+      </c>
+      <c r="G33" t="s">
+        <v>152</v>
+      </c>
+      <c r="H33" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34" t="s">
+        <v>155</v>
+      </c>
+      <c r="E34" t="s">
+        <v>159</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" t="s">
+        <v>155</v>
+      </c>
+      <c r="E35" t="s">
+        <v>161</v>
+      </c>
+      <c r="G35" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/sentences.xlsx
+++ b/sentences.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="172">
   <si>
     <t>Structure</t>
   </si>
@@ -693,6 +693,56 @@
   </si>
   <si>
     <t>Person X holds less than two jobs Y.</t>
+  </si>
+  <si>
+    <r>
+      <t>a .* is(n't | n't | not | )a .* of a .*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>\\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>aCNounVariableIsACNounOfACNounVariable</t>
+  </si>
+  <si>
+    <t>a CNoun Variable is a CNoun of a Cnoun Variable.</t>
+  </si>
+  <si>
+    <t>a CNoun Variable is not a CNoun of a CNoun Variable.</t>
+  </si>
+  <si>
+    <t>husband(X, Y) :- ...</t>
+  </si>
+  <si>
+    <t>A person X is a husband of a person Y.</t>
+  </si>
+  <si>
+    <t>A person X is not a husband of a person Y.</t>
+  </si>
+  <si>
+    <t>... :- not husband(X, Y), person(X), person(Y).</t>
+  </si>
+  <si>
+    <t>... :- husband(X, Y), person(X), person(Y).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - husband(X, Y) :- ...</t>
   </si>
 </sst>
 </file>
@@ -777,8 +827,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -832,7 +884,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="45">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -854,6 +906,7 @@
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -875,6 +928,7 @@
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1150,10 +1204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H35"/>
+  <dimension ref="A3:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1162,9 +1216,9 @@
     <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1886,7 +1940,7 @@
       <c r="A33">
         <v>30</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1906,6 +1960,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>31</v>
+      </c>
       <c r="B34" s="2" t="s">
         <v>157</v>
       </c>
@@ -1923,6 +1980,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>32</v>
+      </c>
       <c r="B35" s="2" t="s">
         <v>158</v>
       </c>
@@ -1938,6 +1998,64 @@
       <c r="G35" t="s">
         <v>160</v>
       </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36" t="s">
+        <v>167</v>
+      </c>
+      <c r="G36" t="s">
+        <v>170</v>
+      </c>
+      <c r="H36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" t="s">
+        <v>163</v>
+      </c>
+      <c r="E37" t="s">
+        <v>168</v>
+      </c>
+      <c r="G37" t="s">
+        <v>169</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B41" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sentences.xlsx
+++ b/sentences.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="193">
   <si>
     <t>Structure</t>
   </si>
@@ -743,6 +743,69 @@
   </si>
   <si>
     <t xml:space="preserve"> - husband(X, Y) :- ...</t>
+  </si>
+  <si>
+    <t>PNoun is Adjective Preposition Pnoun</t>
+  </si>
+  <si>
+    <t>PNoun is Preposition Pnoun</t>
+  </si>
+  <si>
+    <t>PNoun is not Preposition Pnoun</t>
+  </si>
+  <si>
+    <t>Roberta is at work.</t>
+  </si>
+  <si>
+    <t>Roberta is not at work.</t>
+  </si>
+  <si>
+    <t>pNounIsAdjectivePrepositionPNoun</t>
+  </si>
+  <si>
+    <t>at(roberta, work).</t>
+  </si>
+  <si>
+    <t>... :- at(roberta, work).</t>
+  </si>
+  <si>
+    <t>... :- not at(roberta, work).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - at(roberta, work).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - at(roberta, work) :- ...</t>
+  </si>
+  <si>
+    <t>at(roberta, work) :- ...</t>
+  </si>
+  <si>
+    <t>PNoun is not Adjective Preposition Pnoun</t>
+  </si>
+  <si>
+    <t>Roberta is married to bob.</t>
+  </si>
+  <si>
+    <t>Roberta is not married to bob.</t>
+  </si>
+  <si>
+    <t>married_to(roberta, bob).</t>
+  </si>
+  <si>
+    <t>... :- married_to(roberta, bob).</t>
+  </si>
+  <si>
+    <t>... :- not married_to(roberta, bob).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - married_to(roberta, bob).</t>
+  </si>
+  <si>
+    <t>married_to(roberta, bob) :- ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - married_to(roberta, bob) :- ...</t>
   </si>
 </sst>
 </file>
@@ -827,8 +890,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -884,7 +959,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="57">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -907,6 +982,12 @@
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -929,6 +1010,12 @@
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1204,10 +1291,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H41"/>
+  <dimension ref="A3:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" zoomScale="168" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1217,9 +1304,9 @@
     <col min="3" max="3" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1534,528 +1621,620 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>136</v>
+      <c r="B16" t="s">
+        <v>173</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="E16" t="s">
-        <v>138</v>
+        <v>175</v>
+      </c>
+      <c r="F16" t="s">
+        <v>178</v>
       </c>
       <c r="G16" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="H16" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>137</v>
+      <c r="B17" t="s">
+        <v>174</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="E17" t="s">
-        <v>139</v>
+        <v>176</v>
+      </c>
+      <c r="F17" t="s">
+        <v>181</v>
       </c>
       <c r="G17" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="H17" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>15</v>
-      </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>185</v>
+      </c>
+      <c r="F18" t="s">
+        <v>187</v>
       </c>
       <c r="G18" t="s">
-        <v>69</v>
+        <v>188</v>
       </c>
       <c r="H18" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>16</v>
-      </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>186</v>
+      </c>
+      <c r="F19" t="s">
+        <v>190</v>
       </c>
       <c r="G19" t="s">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="H19" t="s">
-        <v>75</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="G20" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="H20" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="G21" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="H21" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="G22" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="H22" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="G23" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G25" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>23</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>127</v>
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>118</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E26" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="G26" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H26" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>24</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>128</v>
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>117</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E27" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G27" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="H27" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>96</v>
+        <v>21</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>26</v>
-      </c>
-      <c r="B29" t="s">
-        <v>97</v>
+        <v>22</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E29" t="s">
-        <v>101</v>
-      </c>
-      <c r="F29" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="G29" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="H29" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
-      </c>
-      <c r="F30" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="G30" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="H30" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E31" t="s">
-        <v>114</v>
-      </c>
-      <c r="F31" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="G31" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="H31" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="D32" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="E32" t="s">
-        <v>149</v>
+        <v>100</v>
+      </c>
+      <c r="F32" t="s">
+        <v>102</v>
       </c>
       <c r="G32" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="H32" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>30</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>148</v>
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="D33" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="E33" t="s">
-        <v>150</v>
+        <v>101</v>
+      </c>
+      <c r="F33" t="s">
+        <v>105</v>
       </c>
       <c r="G33" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="H33" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="E34" t="s">
-        <v>159</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>154</v>
+        <v>108</v>
+      </c>
+      <c r="F34" t="s">
+        <v>109</v>
+      </c>
+      <c r="G34" t="s">
+        <v>110</v>
+      </c>
+      <c r="H34" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="D35" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="E35" t="s">
-        <v>161</v>
+        <v>114</v>
+      </c>
+      <c r="F35" t="s">
+        <v>112</v>
       </c>
       <c r="G35" t="s">
-        <v>160</v>
+        <v>113</v>
+      </c>
+      <c r="H35" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>33</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>164</v>
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>147</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="D36" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="E36" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="G36" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="H36" t="s">
-        <v>166</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
+        <v>30</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" t="s">
+        <v>150</v>
+      </c>
+      <c r="G37" t="s">
+        <v>152</v>
+      </c>
+      <c r="H37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>31</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" t="s">
+        <v>155</v>
+      </c>
+      <c r="E38" t="s">
+        <v>159</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>32</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" t="s">
+        <v>155</v>
+      </c>
+      <c r="E39" t="s">
+        <v>161</v>
+      </c>
+      <c r="G39" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>33</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D40" t="s">
+        <v>163</v>
+      </c>
+      <c r="E40" t="s">
+        <v>167</v>
+      </c>
+      <c r="G40" t="s">
+        <v>170</v>
+      </c>
+      <c r="H40" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>34</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D41" t="s">
         <v>163</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E41" t="s">
         <v>168</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G41" t="s">
         <v>169</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H41" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="2"/>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B45" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sentences.xlsx
+++ b/sentences.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="201">
   <si>
     <t>Structure</t>
   </si>
@@ -745,15 +745,6 @@
     <t xml:space="preserve"> - husband(X, Y) :- ...</t>
   </si>
   <si>
-    <t>PNoun is Adjective Preposition Pnoun</t>
-  </si>
-  <si>
-    <t>PNoun is Preposition Pnoun</t>
-  </si>
-  <si>
-    <t>PNoun is not Preposition Pnoun</t>
-  </si>
-  <si>
     <t>Roberta is at work.</t>
   </si>
   <si>
@@ -781,9 +772,6 @@
     <t>at(roberta, work) :- ...</t>
   </si>
   <si>
-    <t>PNoun is not Adjective Preposition Pnoun</t>
-  </si>
-  <si>
     <t>Roberta is married to bob.</t>
   </si>
   <si>
@@ -806,6 +794,42 @@
   </si>
   <si>
     <t xml:space="preserve"> - married_to(roberta, bob) :- ...</t>
+  </si>
+  <si>
+    <t>PNoun is Preposition Pnoun.</t>
+  </si>
+  <si>
+    <t>PNoun is not Preposition Pnoun.</t>
+  </si>
+  <si>
+    <t>PNoun is Adjective Preposition Pnoun.</t>
+  </si>
+  <si>
+    <t>PNoun is not Adjective Preposition Pnoun.</t>
+  </si>
+  <si>
+    <t>CNoun Variable is Preposition Pnoun.</t>
+  </si>
+  <si>
+    <t>CNoun Variable is not Preposition Pnoun.</t>
+  </si>
+  <si>
+    <t>CNoun Variable is Adjective Preposition Pnoun.</t>
+  </si>
+  <si>
+    <t>CNoun Variable is not Adjective Preposition Pnoun.</t>
+  </si>
+  <si>
+    <t>Person X is at work.</t>
+  </si>
+  <si>
+    <t>Person X is not at work.</t>
+  </si>
+  <si>
+    <t>Person X is married to bob.</t>
+  </si>
+  <si>
+    <t>Person X is not married to bob.</t>
   </si>
 </sst>
 </file>
@@ -890,8 +914,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="57">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -959,7 +985,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="57">
+  <cellStyles count="59">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -988,6 +1014,7 @@
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1016,6 +1043,7 @@
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1291,10 +1319,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H45"/>
+  <dimension ref="A3:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" zoomScale="168" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A9" zoomScale="168" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1622,619 +1650,663 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E16" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16" t="s">
         <v>175</v>
       </c>
-      <c r="F16" t="s">
-        <v>178</v>
-      </c>
       <c r="G16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" t="s">
         <v>177</v>
       </c>
-      <c r="E17" t="s">
-        <v>176</v>
-      </c>
-      <c r="F17" t="s">
-        <v>181</v>
-      </c>
-      <c r="G17" t="s">
-        <v>180</v>
-      </c>
       <c r="H17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E18" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F18" t="s">
+        <v>183</v>
+      </c>
+      <c r="G18" t="s">
+        <v>184</v>
+      </c>
+      <c r="H18" t="s">
         <v>187</v>
-      </c>
-      <c r="G18" t="s">
-        <v>188</v>
-      </c>
-      <c r="H18" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E19" t="s">
+        <v>182</v>
+      </c>
+      <c r="F19" t="s">
         <v>186</v>
       </c>
-      <c r="F19" t="s">
-        <v>190</v>
-      </c>
       <c r="G19" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H19" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>13</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>136</v>
+      <c r="B20" t="s">
+        <v>193</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" t="s">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>138</v>
-      </c>
-      <c r="G20" t="s">
-        <v>143</v>
-      </c>
-      <c r="H20" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>14</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>137</v>
+      <c r="B21" t="s">
+        <v>194</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" t="s">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>139</v>
-      </c>
-      <c r="G21" t="s">
-        <v>144</v>
-      </c>
-      <c r="H21" t="s">
-        <v>141</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>15</v>
-      </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>195</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H22" t="s">
-        <v>70</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>16</v>
-      </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>196</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23" t="s">
-        <v>78</v>
-      </c>
-      <c r="H23" t="s">
-        <v>75</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="G24" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="H24" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="E25" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="G25" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="H25" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E26" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="G26" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="H26" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E27" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E29" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G29" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>23</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>127</v>
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>118</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E30" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="G30" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H30" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>24</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>128</v>
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>117</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E31" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G31" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="H31" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>96</v>
+        <v>21</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E32" t="s">
-        <v>100</v>
-      </c>
-      <c r="F32" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>26</v>
-      </c>
-      <c r="B33" t="s">
-        <v>97</v>
+        <v>22</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E33" t="s">
-        <v>101</v>
-      </c>
-      <c r="F33" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="G33" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="H33" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E34" t="s">
-        <v>108</v>
-      </c>
-      <c r="F34" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="G34" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="H34" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E35" t="s">
-        <v>114</v>
-      </c>
-      <c r="F35" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="G35" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="H35" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="E36" t="s">
-        <v>149</v>
+        <v>100</v>
+      </c>
+      <c r="F36" t="s">
+        <v>102</v>
       </c>
       <c r="G36" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="H36" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>30</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>148</v>
+        <v>26</v>
+      </c>
+      <c r="B37" t="s">
+        <v>97</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="D37" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="E37" t="s">
-        <v>150</v>
+        <v>101</v>
+      </c>
+      <c r="F37" t="s">
+        <v>105</v>
       </c>
       <c r="G37" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="H37" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="E38" t="s">
-        <v>159</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>154</v>
+        <v>108</v>
+      </c>
+      <c r="F38" t="s">
+        <v>109</v>
+      </c>
+      <c r="G38" t="s">
+        <v>110</v>
+      </c>
+      <c r="H38" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="E39" t="s">
-        <v>161</v>
+        <v>114</v>
+      </c>
+      <c r="F39" t="s">
+        <v>112</v>
       </c>
       <c r="G39" t="s">
-        <v>160</v>
+        <v>113</v>
+      </c>
+      <c r="H39" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>33</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>164</v>
+        <v>29</v>
+      </c>
+      <c r="B40" t="s">
+        <v>147</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="D40" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="E40" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="G40" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="H40" t="s">
-        <v>166</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
+        <v>30</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" t="s">
+        <v>146</v>
+      </c>
+      <c r="E41" t="s">
+        <v>150</v>
+      </c>
+      <c r="G41" t="s">
+        <v>152</v>
+      </c>
+      <c r="H41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>31</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" t="s">
+        <v>155</v>
+      </c>
+      <c r="E42" t="s">
+        <v>159</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>32</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D43" t="s">
+        <v>155</v>
+      </c>
+      <c r="E43" t="s">
+        <v>161</v>
+      </c>
+      <c r="G43" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>33</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" t="s">
+        <v>163</v>
+      </c>
+      <c r="E44" t="s">
+        <v>167</v>
+      </c>
+      <c r="G44" t="s">
+        <v>170</v>
+      </c>
+      <c r="H44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>34</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D45" t="s">
         <v>163</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E45" t="s">
         <v>168</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G45" t="s">
         <v>169</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H45" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="2"/>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sentences.xlsx
+++ b/sentences.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="238">
   <si>
     <t>Structure</t>
   </si>
@@ -796,30 +796,6 @@
     <t xml:space="preserve"> - married_to(roberta, bob) :- ...</t>
   </si>
   <si>
-    <t>PNoun is Preposition Pnoun.</t>
-  </si>
-  <si>
-    <t>PNoun is not Preposition Pnoun.</t>
-  </si>
-  <si>
-    <t>PNoun is Adjective Preposition Pnoun.</t>
-  </si>
-  <si>
-    <t>PNoun is not Adjective Preposition Pnoun.</t>
-  </si>
-  <si>
-    <t>CNoun Variable is Preposition Pnoun.</t>
-  </si>
-  <si>
-    <t>CNoun Variable is not Preposition Pnoun.</t>
-  </si>
-  <si>
-    <t>CNoun Variable is Adjective Preposition Pnoun.</t>
-  </si>
-  <si>
-    <t>CNoun Variable is not Adjective Preposition Pnoun.</t>
-  </si>
-  <si>
     <t>Person X is at work.</t>
   </si>
   <si>
@@ -830,6 +806,141 @@
   </si>
   <si>
     <t>Person X is not married to bob.</t>
+  </si>
+  <si>
+    <t>cNounVariableIsAdjectivePrepositionPNoun</t>
+  </si>
+  <si>
+    <t>married_to(X, bob) :- ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - married_to(X, bob) :- ...</t>
+  </si>
+  <si>
+    <t>... :- married_to(X, bob), person(X).</t>
+  </si>
+  <si>
+    <t>... :- not married_to(X, bob), person(X).</t>
+  </si>
+  <si>
+    <t>at(X, work) :- ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - at(X, work) :- ...</t>
+  </si>
+  <si>
+    <t>... :- at(X, work), person(X).</t>
+  </si>
+  <si>
+    <t>... :- not at(X, work), person(X).</t>
+  </si>
+  <si>
+    <t>CNoun Variable is Preposition CNoun Variable.</t>
+  </si>
+  <si>
+    <t>PNoun is Preposition PNoun.</t>
+  </si>
+  <si>
+    <t>PNoun is not Preposition PNoun.</t>
+  </si>
+  <si>
+    <t>PNoun is Adjective Preposition PNoun.</t>
+  </si>
+  <si>
+    <t>PNoun is not Adjective Preposition PNoun.</t>
+  </si>
+  <si>
+    <t>CNoun Variable is Preposition PNoun.</t>
+  </si>
+  <si>
+    <t>CNoun Variable is not Preposition PNoun.</t>
+  </si>
+  <si>
+    <t>CNoun Variable is Adjective Preposition PNoun.</t>
+  </si>
+  <si>
+    <t>CNoun Variable is not Adjective Preposition PNoun.</t>
+  </si>
+  <si>
+    <t>CNoun Variable is not Preposition CNoun Variable.</t>
+  </si>
+  <si>
+    <t>CNoun Variable is Adjective Preposition CNoun Variable.</t>
+  </si>
+  <si>
+    <t>CNoun Variable is not Adjective Preposition CNoun Variable.</t>
+  </si>
+  <si>
+    <t>PNoun is Preposition CNoun Variable.</t>
+  </si>
+  <si>
+    <t>PNoun is not Preposition CNoun Variable.</t>
+  </si>
+  <si>
+    <t>PNoun is Adjective Preposition CNoun Variable.</t>
+  </si>
+  <si>
+    <t>PNoun is not Adjective Preposition CNoun Variable.</t>
+  </si>
+  <si>
+    <t>.* is(n't | n't | not | ).* [a-z] \\.$</t>
+  </si>
+  <si>
+    <t>Roberta is married to person X.</t>
+  </si>
+  <si>
+    <t>Roberta is not married to person X.</t>
+  </si>
+  <si>
+    <t>Roberta is in room X.</t>
+  </si>
+  <si>
+    <t>Roberta is not in room X.</t>
+  </si>
+  <si>
+    <t>in(roberta, X) :- ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - in(roberta, X) :- ...</t>
+  </si>
+  <si>
+    <t>married_to(roberta, X) :- ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - married_to(roberta, X) :- ...</t>
+  </si>
+  <si>
+    <t>... :- in(roberta, X), room(X).</t>
+  </si>
+  <si>
+    <t>... :- not in(roberta, X), room(X).</t>
+  </si>
+  <si>
+    <t>... :- married_to(roberta, X), person(X).</t>
+  </si>
+  <si>
+    <t>... :- not married_to(roberta, X), person(X).</t>
+  </si>
+  <si>
+    <t>pNounIsAdjectivePrepositionCNounVariable</t>
+  </si>
+  <si>
+    <t>.* [a-z] is(n't | n't | not | ).* [a-z] \\.$</t>
+  </si>
+  <si>
+    <t>Person X is in room Y.</t>
+  </si>
+  <si>
+    <t>Person X is not in room Y.</t>
+  </si>
+  <si>
+    <t>Person X is married to person Y.</t>
+  </si>
+  <si>
+    <t>Person X is not married to person Y.</t>
+  </si>
+  <si>
+    <t>cNounVariableIsAdjectivePrepositioncNounVariableIs</t>
   </si>
 </sst>
 </file>
@@ -914,8 +1025,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -985,7 +1108,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="71">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1015,6 +1138,12 @@
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1044,6 +1173,12 @@
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1319,17 +1454,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H49"/>
+  <dimension ref="A3:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A9" zoomScale="168" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C14" zoomScale="168" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
@@ -1650,7 +1785,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
@@ -1673,7 +1808,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
@@ -1696,7 +1831,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -1719,7 +1854,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>12</v>
@@ -1742,571 +1877,751 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="D20" t="s">
+        <v>193</v>
+      </c>
       <c r="E20" t="s">
-        <v>197</v>
+        <v>189</v>
+      </c>
+      <c r="G20" t="s">
+        <v>200</v>
+      </c>
+      <c r="H20" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="D21" t="s">
+        <v>193</v>
+      </c>
       <c r="E21" t="s">
-        <v>198</v>
+        <v>190</v>
+      </c>
+      <c r="G21" t="s">
+        <v>201</v>
+      </c>
+      <c r="H21" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="D22" t="s">
+        <v>193</v>
+      </c>
       <c r="E22" t="s">
-        <v>199</v>
+        <v>191</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H22" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="D23" t="s">
+        <v>193</v>
+      </c>
       <c r="E23" t="s">
-        <v>200</v>
+        <v>192</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>13</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>136</v>
+      <c r="B24" t="s">
+        <v>214</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>140</v>
+        <v>218</v>
       </c>
       <c r="D24" t="s">
-        <v>135</v>
+        <v>231</v>
       </c>
       <c r="E24" t="s">
-        <v>138</v>
-      </c>
-      <c r="G24" t="s">
-        <v>143</v>
-      </c>
-      <c r="H24" t="s">
-        <v>142</v>
+        <v>221</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>14</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>137</v>
+      <c r="B25" t="s">
+        <v>215</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>140</v>
+        <v>218</v>
       </c>
       <c r="D25" t="s">
-        <v>135</v>
+        <v>231</v>
       </c>
       <c r="E25" t="s">
-        <v>139</v>
-      </c>
-      <c r="G25" t="s">
-        <v>144</v>
-      </c>
-      <c r="H25" t="s">
-        <v>141</v>
+        <v>222</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>15</v>
-      </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>216</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>68</v>
+        <v>218</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>231</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" t="s">
-        <v>69</v>
-      </c>
-      <c r="H26" t="s">
-        <v>70</v>
+        <v>219</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>16</v>
-      </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>217</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>68</v>
+        <v>218</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>231</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
-      </c>
-      <c r="G27" t="s">
-        <v>78</v>
-      </c>
-      <c r="H27" t="s">
-        <v>75</v>
+        <v>220</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>17</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>119</v>
+      <c r="B28" t="s">
+        <v>202</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
-      </c>
-      <c r="G28" t="s">
-        <v>79</v>
-      </c>
-      <c r="H28" t="s">
-        <v>81</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>18</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>83</v>
+      <c r="B29" t="s">
+        <v>211</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="E29" t="s">
-        <v>85</v>
-      </c>
-      <c r="G29" t="s">
-        <v>80</v>
-      </c>
-      <c r="H29" t="s">
-        <v>82</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>19</v>
-      </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>212</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="E30" t="s">
-        <v>120</v>
-      </c>
-      <c r="G30" t="s">
-        <v>125</v>
-      </c>
-      <c r="H30" t="s">
-        <v>122</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>20</v>
-      </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="E31" t="s">
-        <v>121</v>
-      </c>
-      <c r="G31" t="s">
-        <v>124</v>
-      </c>
-      <c r="H31" t="s">
-        <v>123</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="E32" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="G32" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="H32" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="E33" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="G33" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="H33" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>23</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>127</v>
+        <v>15</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E34" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="G34" t="s">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="H34" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>24</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>128</v>
+        <v>16</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D35" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E35" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="G35" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>96</v>
+        <v>17</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="D36" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E36" t="s">
-        <v>100</v>
-      </c>
-      <c r="F36" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>26</v>
-      </c>
-      <c r="B37" t="s">
-        <v>97</v>
+        <v>18</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="D37" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E37" t="s">
-        <v>101</v>
-      </c>
-      <c r="F37" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="G37" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>27</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>115</v>
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
+        <v>118</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="D38" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E38" t="s">
-        <v>108</v>
-      </c>
-      <c r="F38" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="G38" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="H38" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>28</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>116</v>
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>117</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="D39" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>114</v>
-      </c>
-      <c r="F39" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G39" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="H39" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>29</v>
-      </c>
-      <c r="B40" t="s">
-        <v>147</v>
+        <v>21</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="D40" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="E40" t="s">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="H40" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="E41" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="G41" t="s">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="H41" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="D42" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="E42" t="s">
-        <v>159</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>154</v>
+        <v>129</v>
+      </c>
+      <c r="G42" t="s">
+        <v>133</v>
+      </c>
+      <c r="H42" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="D43" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="E43" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="G43" t="s">
-        <v>160</v>
+        <v>134</v>
+      </c>
+      <c r="H43" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>33</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>164</v>
+        <v>25</v>
+      </c>
+      <c r="B44" t="s">
+        <v>96</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="D44" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="E44" t="s">
-        <v>167</v>
+        <v>100</v>
+      </c>
+      <c r="F44" t="s">
+        <v>102</v>
       </c>
       <c r="G44" t="s">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="H44" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
+        <v>26</v>
+      </c>
+      <c r="B45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" t="s">
+        <v>101</v>
+      </c>
+      <c r="F45" t="s">
+        <v>105</v>
+      </c>
+      <c r="G45" t="s">
+        <v>106</v>
+      </c>
+      <c r="H45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>27</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" t="s">
+        <v>108</v>
+      </c>
+      <c r="F46" t="s">
+        <v>109</v>
+      </c>
+      <c r="G46" t="s">
+        <v>110</v>
+      </c>
+      <c r="H46" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>28</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" t="s">
+        <v>114</v>
+      </c>
+      <c r="F47" t="s">
+        <v>112</v>
+      </c>
+      <c r="G47" t="s">
+        <v>113</v>
+      </c>
+      <c r="H47" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>29</v>
+      </c>
+      <c r="B48" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" t="s">
+        <v>146</v>
+      </c>
+      <c r="E48" t="s">
+        <v>149</v>
+      </c>
+      <c r="G48" t="s">
+        <v>153</v>
+      </c>
+      <c r="H48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>30</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" t="s">
+        <v>146</v>
+      </c>
+      <c r="E49" t="s">
+        <v>150</v>
+      </c>
+      <c r="G49" t="s">
+        <v>152</v>
+      </c>
+      <c r="H49" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>31</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" t="s">
+        <v>155</v>
+      </c>
+      <c r="E50" t="s">
+        <v>159</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>32</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D51" t="s">
+        <v>155</v>
+      </c>
+      <c r="E51" t="s">
+        <v>161</v>
+      </c>
+      <c r="G51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>33</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D52" t="s">
+        <v>163</v>
+      </c>
+      <c r="E52" t="s">
+        <v>167</v>
+      </c>
+      <c r="G52" t="s">
+        <v>170</v>
+      </c>
+      <c r="H52" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>34</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D53" t="s">
         <v>163</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E53" t="s">
         <v>168</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G53" t="s">
         <v>169</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H53" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="2"/>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B57" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sentences.xlsx
+++ b/sentences.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="250">
   <si>
     <t>Structure</t>
   </si>
@@ -941,6 +941,42 @@
   </si>
   <si>
     <t>cNounVariableIsAdjectivePrepositioncNounVariableIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - in(X, Y) :- ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - married_to(X, Y) :- ...</t>
+  </si>
+  <si>
+    <t>... :- in(X, Y), person(X), room(Y).</t>
+  </si>
+  <si>
+    <t>married_to(X, Y) :- ...</t>
+  </si>
+  <si>
+    <t>in(X, Y) :- ...</t>
+  </si>
+  <si>
+    <t>... :- not in(X, Y), person(X), room(Y).</t>
+  </si>
+  <si>
+    <t>... :- married_to(X, Y), person(X), person(Y).</t>
+  </si>
+  <si>
+    <t>... :- not married_to(X, Y), person(X), person(Y).</t>
+  </si>
+  <si>
+    <t>PNoun is Verb.</t>
+  </si>
+  <si>
+    <t>CNoun Variable is Verb.</t>
+  </si>
+  <si>
+    <t>.* is(n't | n't | not | ).* \\.$</t>
+  </si>
+  <si>
+    <t>.* [a-z] is(n't | n't | not | ).* \\.$</t>
   </si>
 </sst>
 </file>
@@ -1025,8 +1061,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1108,7 +1146,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="73">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1144,6 +1182,7 @@
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1179,6 +1218,7 @@
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1454,21 +1494,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H57"/>
+  <dimension ref="A3:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C14" zoomScale="168" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A4" zoomScale="168" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1640,63 +1680,27 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
+      <c r="B10" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" t="s">
-        <v>55</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
+      <c r="B11" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" t="s">
-        <v>56</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -1705,21 +1709,24 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H12" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
@@ -1728,110 +1735,116 @@
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="H14" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D17" t="s">
         <v>20</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E17" t="s">
         <v>27</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G17" t="s">
         <v>48</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
         <v>203</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>174</v>
-      </c>
-      <c r="E16" t="s">
-        <v>172</v>
-      </c>
-      <c r="F16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G16" t="s">
-        <v>176</v>
-      </c>
-      <c r="H16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>204</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" t="s">
-        <v>174</v>
-      </c>
-      <c r="E17" t="s">
-        <v>173</v>
-      </c>
-      <c r="F17" t="s">
-        <v>178</v>
-      </c>
-      <c r="G17" t="s">
-        <v>177</v>
-      </c>
-      <c r="H17" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>205</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -1840,21 +1853,24 @@
         <v>174</v>
       </c>
       <c r="E18" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F18" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="G18" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="H18" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>14</v>
+      </c>
       <c r="B19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>12</v>
@@ -1863,61 +1879,76 @@
         <v>174</v>
       </c>
       <c r="E19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" t="s">
+        <v>177</v>
+      </c>
+      <c r="H19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>174</v>
+      </c>
+      <c r="E20" t="s">
+        <v>181</v>
+      </c>
+      <c r="F20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" t="s">
+        <v>184</v>
+      </c>
+      <c r="H20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E21" t="s">
         <v>182</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F21" t="s">
         <v>186</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G21" t="s">
         <v>185</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H21" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
         <v>207</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" t="s">
-        <v>193</v>
-      </c>
-      <c r="E20" t="s">
-        <v>189</v>
-      </c>
-      <c r="G20" t="s">
-        <v>200</v>
-      </c>
-      <c r="H20" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>208</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" t="s">
-        <v>193</v>
-      </c>
-      <c r="E21" t="s">
-        <v>190</v>
-      </c>
-      <c r="G21" t="s">
-        <v>201</v>
-      </c>
-      <c r="H21" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>209</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>28</v>
@@ -1926,18 +1957,21 @@
         <v>193</v>
       </c>
       <c r="E22" t="s">
-        <v>191</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>196</v>
+        <v>189</v>
+      </c>
+      <c r="G22" t="s">
+        <v>200</v>
       </c>
       <c r="H22" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>18</v>
+      </c>
       <c r="B23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>28</v>
@@ -1946,58 +1980,67 @@
         <v>193</v>
       </c>
       <c r="E23" t="s">
+        <v>190</v>
+      </c>
+      <c r="G23" t="s">
+        <v>201</v>
+      </c>
+      <c r="H23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>193</v>
+      </c>
+      <c r="E24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>193</v>
+      </c>
+      <c r="E25" t="s">
         <v>192</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H25" s="5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
         <v>214</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D24" t="s">
-        <v>231</v>
-      </c>
-      <c r="E24" t="s">
-        <v>221</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>215</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D25" t="s">
-        <v>231</v>
-      </c>
-      <c r="E25" t="s">
-        <v>222</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>216</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>218</v>
@@ -2006,18 +2049,21 @@
         <v>231</v>
       </c>
       <c r="E26" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>22</v>
+      </c>
       <c r="B27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>218</v>
@@ -2026,50 +2072,67 @@
         <v>231</v>
       </c>
       <c r="E27" t="s">
+        <v>222</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>216</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D28" t="s">
+        <v>231</v>
+      </c>
+      <c r="E28" t="s">
+        <v>219</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D29" t="s">
+        <v>231</v>
+      </c>
+      <c r="E29" t="s">
         <v>220</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H29" s="5" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
         <v>202</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D28" t="s">
-        <v>237</v>
-      </c>
-      <c r="E28" t="s">
-        <v>233</v>
-      </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>211</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D29" t="s">
-        <v>237</v>
-      </c>
-      <c r="E29" t="s">
-        <v>234</v>
-      </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>212</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>232</v>
@@ -2078,14 +2141,21 @@
         <v>237</v>
       </c>
       <c r="E30" t="s">
-        <v>235</v>
-      </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
+        <v>233</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>26</v>
+      </c>
       <c r="B31" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>232</v>
@@ -2094,155 +2164,159 @@
         <v>237</v>
       </c>
       <c r="E31" t="s">
-        <v>236</v>
-      </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
+        <v>234</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>13</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>136</v>
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>212</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>140</v>
+        <v>232</v>
       </c>
       <c r="D32" t="s">
-        <v>135</v>
+        <v>237</v>
       </c>
       <c r="E32" t="s">
-        <v>138</v>
-      </c>
-      <c r="G32" t="s">
-        <v>143</v>
-      </c>
-      <c r="H32" t="s">
-        <v>142</v>
+        <v>235</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>14</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>137</v>
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>213</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>140</v>
+        <v>232</v>
       </c>
       <c r="D33" t="s">
-        <v>135</v>
+        <v>237</v>
       </c>
       <c r="E33" t="s">
-        <v>139</v>
-      </c>
-      <c r="G33" t="s">
-        <v>144</v>
-      </c>
-      <c r="H33" t="s">
-        <v>141</v>
+        <v>236</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>15</v>
-      </c>
-      <c r="B34" t="s">
-        <v>71</v>
+        <v>29</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="G34" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="H34" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>16</v>
-      </c>
-      <c r="B35" t="s">
-        <v>72</v>
+        <v>30</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="G35" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="H35" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>17</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>119</v>
+        <v>31</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D36" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E36" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="G36" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="H36" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>18</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>83</v>
+        <v>32</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E37" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="G37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>19</v>
-      </c>
-      <c r="B38" t="s">
-        <v>118</v>
+        <v>33</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>77</v>
@@ -2251,21 +2325,21 @@
         <v>76</v>
       </c>
       <c r="E38" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="G38" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>20</v>
-      </c>
-      <c r="B39" t="s">
-        <v>117</v>
+        <v>34</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>77</v>
@@ -2274,67 +2348,67 @@
         <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="G39" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>21</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>90</v>
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>118</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D40" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E40" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="G40" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="H40" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>22</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>95</v>
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>117</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D41" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E41" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="G41" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="H41" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>91</v>
@@ -2343,21 +2417,21 @@
         <v>89</v>
       </c>
       <c r="E42" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>91</v>
@@ -2366,73 +2440,67 @@
         <v>89</v>
       </c>
       <c r="E43" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="G43" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="H43" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>25</v>
-      </c>
-      <c r="B44" t="s">
-        <v>96</v>
+        <v>39</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D44" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E44" t="s">
-        <v>100</v>
-      </c>
-      <c r="F44" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="G44" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="H44" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>26</v>
-      </c>
-      <c r="B45" t="s">
-        <v>97</v>
+        <v>40</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D45" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E45" t="s">
-        <v>101</v>
-      </c>
-      <c r="F45" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="G45" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="H45" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>27</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>115</v>
+        <v>41</v>
+      </c>
+      <c r="B46" t="s">
+        <v>96</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>98</v>
@@ -2441,24 +2509,24 @@
         <v>99</v>
       </c>
       <c r="E46" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F46" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G46" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H46" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>28</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>116</v>
+        <v>42</v>
+      </c>
+      <c r="B47" t="s">
+        <v>97</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>98</v>
@@ -2467,161 +2535,213 @@
         <v>99</v>
       </c>
       <c r="E47" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F47" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G47" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="H47" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>29</v>
-      </c>
-      <c r="B48" t="s">
-        <v>147</v>
+        <v>43</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="D48" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="E48" t="s">
-        <v>149</v>
+        <v>108</v>
+      </c>
+      <c r="F48" t="s">
+        <v>109</v>
       </c>
       <c r="G48" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="H48" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="D49" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="E49" t="s">
-        <v>150</v>
+        <v>114</v>
+      </c>
+      <c r="F49" t="s">
+        <v>112</v>
       </c>
       <c r="G49" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="H49" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>31</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>157</v>
+        <v>45</v>
+      </c>
+      <c r="B50" t="s">
+        <v>147</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D50" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E50" t="s">
-        <v>159</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
+      </c>
+      <c r="G50" t="s">
+        <v>153</v>
+      </c>
+      <c r="H50" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D51" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E51" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="G51" t="s">
-        <v>160</v>
+        <v>152</v>
+      </c>
+      <c r="H51" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D52" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E52" t="s">
-        <v>167</v>
-      </c>
-      <c r="G52" t="s">
-        <v>170</v>
-      </c>
-      <c r="H52" t="s">
-        <v>166</v>
+        <v>159</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D53" t="s">
+        <v>155</v>
+      </c>
+      <c r="E53" t="s">
+        <v>161</v>
+      </c>
+      <c r="G53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>49</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54" t="s">
+        <v>163</v>
+      </c>
+      <c r="E54" t="s">
+        <v>167</v>
+      </c>
+      <c r="G54" t="s">
+        <v>170</v>
+      </c>
+      <c r="H54" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>50</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D55" t="s">
         <v>163</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E55" t="s">
         <v>168</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G55" t="s">
         <v>169</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="H55" s="5" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sentences.xlsx
+++ b/sentences.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="279">
   <si>
     <t>Structure</t>
   </si>
@@ -973,10 +973,97 @@
     <t>CNoun Variable is Verb.</t>
   </si>
   <si>
-    <t>.* is(n't | n't | not | ).* \\.$</t>
-  </si>
-  <si>
-    <t>.* [a-z] is(n't | n't | not | ).* \\.$</t>
+    <t>PNoun Verb.</t>
+  </si>
+  <si>
+    <t>CNoun Variable Verb.</t>
+  </si>
+  <si>
+    <t>pNounVerb</t>
+  </si>
+  <si>
+    <t>cNounVariableVerb</t>
+  </si>
+  <si>
+    <t>pNounIsVerb</t>
+  </si>
+  <si>
+    <t>cNounVariableisVerb</t>
+  </si>
+  <si>
+    <t>Roberta reads.</t>
+  </si>
+  <si>
+    <t>Person X reads.</t>
+  </si>
+  <si>
+    <t>Roberta is reading.</t>
+  </si>
+  <si>
+    <t>Person X is reading.</t>
+  </si>
+  <si>
+    <t>read(roberta).</t>
+  </si>
+  <si>
+    <t>read(roberta) :- ...</t>
+  </si>
+  <si>
+    <t>Pnoun not Verb.</t>
+  </si>
+  <si>
+    <t>Roberta does not read.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - read(roberta).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - read(roberta) :- ...</t>
+  </si>
+  <si>
+    <t>... :- read(roberta).</t>
+  </si>
+  <si>
+    <t>... :- not read(roberta).</t>
+  </si>
+  <si>
+    <t>read(X) :- ...</t>
+  </si>
+  <si>
+    <t>... :- read(X), person(X).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - read(X) :- ...</t>
+  </si>
+  <si>
+    <t>... :- not read(X), person(X).</t>
+  </si>
+  <si>
+    <t>Person X does not read.</t>
+  </si>
+  <si>
+    <t>Roberta is not reading.</t>
+  </si>
+  <si>
+    <t>CNoun Variable not Verb.</t>
+  </si>
+  <si>
+    <t>PNoun is not Verb.</t>
+  </si>
+  <si>
+    <t>CNoun Variable is not Verb.</t>
+  </si>
+  <si>
+    <t>.* is(n't | n't | not | ).*\\.$</t>
+  </si>
+  <si>
+    <t>.* [a-z] .*\\.$</t>
+  </si>
+  <si>
+    <t>.* .*\\.$</t>
+  </si>
+  <si>
+    <t>Person X is not reading.</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1148,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="73">
+  <cellStyleXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1135,8 +1222,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1145,8 +1258,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="73">
+  <cellStyles count="99">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1183,6 +1302,19 @@
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1219,6 +1351,19 @@
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1494,10 +1639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H59"/>
+  <dimension ref="A3:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A4" zoomScale="168" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" zoomScale="108" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1679,1069 +1824,1249 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
+      <c r="C14" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>12</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="C16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
         <v>14</v>
       </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>9</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" t="s">
-        <v>50</v>
+      <c r="D17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>203</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>174</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>175</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>176</v>
+        <v>57</v>
       </c>
       <c r="H18" t="s">
-        <v>180</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>174</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>178</v>
+        <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>177</v>
+        <v>58</v>
       </c>
       <c r="H19" t="s">
-        <v>179</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
-        <v>205</v>
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>174</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>181</v>
-      </c>
-      <c r="F20" t="s">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="G20" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="H20" t="s">
-        <v>187</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>16</v>
-      </c>
-      <c r="B21" t="s">
-        <v>206</v>
+        <v>18</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>174</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>182</v>
-      </c>
-      <c r="F21" t="s">
-        <v>186</v>
+        <v>62</v>
       </c>
       <c r="G21" t="s">
-        <v>185</v>
+        <v>64</v>
       </c>
       <c r="H21" t="s">
-        <v>188</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>193</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>189</v>
+        <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>200</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>198</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>208</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>193</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>190</v>
+        <v>27</v>
       </c>
       <c r="G23" t="s">
-        <v>201</v>
+        <v>48</v>
       </c>
       <c r="H23" t="s">
-        <v>199</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="E24" t="s">
-        <v>191</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>196</v>
+        <v>172</v>
+      </c>
+      <c r="F24" t="s">
+        <v>175</v>
+      </c>
+      <c r="G24" t="s">
+        <v>176</v>
       </c>
       <c r="H24" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="E25" t="s">
-        <v>192</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>195</v>
+        <v>173</v>
+      </c>
+      <c r="F25" t="s">
+        <v>178</v>
+      </c>
+      <c r="G25" t="s">
+        <v>177</v>
+      </c>
+      <c r="H25" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="E26" t="s">
-        <v>221</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>223</v>
+        <v>181</v>
+      </c>
+      <c r="F26" t="s">
+        <v>183</v>
+      </c>
+      <c r="G26" t="s">
+        <v>184</v>
+      </c>
+      <c r="H26" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="E27" t="s">
-        <v>222</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>224</v>
+        <v>182</v>
+      </c>
+      <c r="F27" t="s">
+        <v>186</v>
+      </c>
+      <c r="G27" t="s">
+        <v>185</v>
+      </c>
+      <c r="H27" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>218</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="E28" t="s">
-        <v>219</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>225</v>
+        <v>189</v>
+      </c>
+      <c r="G28" t="s">
+        <v>200</v>
+      </c>
+      <c r="H28" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>218</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="E29" t="s">
-        <v>220</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>226</v>
+        <v>190</v>
+      </c>
+      <c r="G29" t="s">
+        <v>201</v>
+      </c>
+      <c r="H29" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>232</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c r="E30" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>242</v>
+        <v>196</v>
+      </c>
+      <c r="H30" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>232</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c r="E31" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D32" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E32" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D33" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E33" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>29</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>136</v>
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>216</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>140</v>
+        <v>218</v>
       </c>
       <c r="D34" t="s">
-        <v>135</v>
+        <v>231</v>
       </c>
       <c r="E34" t="s">
-        <v>138</v>
-      </c>
-      <c r="G34" t="s">
-        <v>143</v>
-      </c>
-      <c r="H34" t="s">
-        <v>142</v>
+        <v>219</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>30</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>137</v>
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>217</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>140</v>
+        <v>218</v>
       </c>
       <c r="D35" t="s">
-        <v>135</v>
+        <v>231</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
-      </c>
-      <c r="G35" t="s">
-        <v>144</v>
-      </c>
-      <c r="H35" t="s">
-        <v>141</v>
+        <v>220</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>202</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>68</v>
+        <v>232</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>237</v>
       </c>
       <c r="E36" t="s">
-        <v>67</v>
-      </c>
-      <c r="G36" t="s">
-        <v>69</v>
-      </c>
-      <c r="H36" t="s">
-        <v>70</v>
+        <v>233</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>211</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>68</v>
+        <v>232</v>
       </c>
       <c r="D37" t="s">
-        <v>73</v>
+        <v>237</v>
       </c>
       <c r="E37" t="s">
-        <v>74</v>
-      </c>
-      <c r="G37" t="s">
-        <v>78</v>
-      </c>
-      <c r="H37" t="s">
-        <v>75</v>
+        <v>234</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>33</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>119</v>
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>212</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="D38" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="E38" t="s">
-        <v>86</v>
-      </c>
-      <c r="G38" t="s">
-        <v>79</v>
-      </c>
-      <c r="H38" t="s">
-        <v>81</v>
+        <v>235</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>34</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>213</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="D39" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="E39" t="s">
-        <v>85</v>
-      </c>
-      <c r="G39" t="s">
-        <v>80</v>
-      </c>
-      <c r="H39" t="s">
-        <v>82</v>
+        <v>236</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>35</v>
-      </c>
-      <c r="B40" t="s">
-        <v>118</v>
+        <v>37</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="D40" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="E40" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="G40" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="H40" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>36</v>
-      </c>
-      <c r="B41" t="s">
-        <v>117</v>
+        <v>38</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="D41" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="E41" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="G41" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="H41" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>37</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>90</v>
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>71</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D42" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E42" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="G42" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="H42" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>38</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>95</v>
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>72</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D43" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E43" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="G43" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D44" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E44" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="G44" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D45" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E45" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="G45" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="D46" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E46" t="s">
-        <v>100</v>
-      </c>
-      <c r="F46" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="G46" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="H46" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="D47" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E47" t="s">
-        <v>101</v>
-      </c>
-      <c r="F47" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="G47" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="H47" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D48" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E48" t="s">
-        <v>108</v>
-      </c>
-      <c r="F48" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="H48" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D49" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E49" t="s">
-        <v>114</v>
-      </c>
-      <c r="F49" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="G49" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="H49" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>45</v>
-      </c>
-      <c r="B50" t="s">
-        <v>147</v>
+        <v>47</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="D50" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="E50" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="G50" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="H50" t="s">
-        <v>36</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="D51" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="E51" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="G51" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="H51" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>47</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>157</v>
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>96</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="D52" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="E52" t="s">
-        <v>159</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>154</v>
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
+        <v>102</v>
+      </c>
+      <c r="G52" t="s">
+        <v>103</v>
+      </c>
+      <c r="H52" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>48</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>158</v>
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>97</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="D53" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="E53" t="s">
-        <v>161</v>
+        <v>101</v>
+      </c>
+      <c r="F53" t="s">
+        <v>105</v>
       </c>
       <c r="G53" t="s">
-        <v>160</v>
+        <v>106</v>
+      </c>
+      <c r="H53" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="D54" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="E54" t="s">
-        <v>167</v>
+        <v>108</v>
+      </c>
+      <c r="F54" t="s">
+        <v>109</v>
       </c>
       <c r="G54" t="s">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="H54" t="s">
-        <v>166</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" t="s">
+        <v>99</v>
+      </c>
+      <c r="E55" t="s">
+        <v>114</v>
+      </c>
+      <c r="F55" t="s">
+        <v>112</v>
+      </c>
+      <c r="G55" t="s">
+        <v>113</v>
+      </c>
+      <c r="H55" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
+        <v>147</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D56" t="s">
+        <v>146</v>
+      </c>
+      <c r="E56" t="s">
+        <v>149</v>
+      </c>
+      <c r="G56" t="s">
+        <v>153</v>
+      </c>
+      <c r="H56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" t="s">
+        <v>146</v>
+      </c>
+      <c r="E57" t="s">
+        <v>150</v>
+      </c>
+      <c r="G57" t="s">
+        <v>152</v>
+      </c>
+      <c r="H57" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D58" t="s">
+        <v>155</v>
+      </c>
+      <c r="E58" t="s">
+        <v>159</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D59" t="s">
+        <v>155</v>
+      </c>
+      <c r="E59" t="s">
+        <v>161</v>
+      </c>
+      <c r="G59" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D60" t="s">
+        <v>163</v>
+      </c>
+      <c r="E60" t="s">
+        <v>167</v>
+      </c>
+      <c r="G60" t="s">
+        <v>170</v>
+      </c>
+      <c r="H60" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D61" t="s">
         <v>163</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E61" t="s">
         <v>168</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G61" t="s">
         <v>169</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="H61" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B57" s="2"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B58" s="2"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B59" s="2"/>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sentences.xlsx
+++ b/sentences.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="297">
   <si>
     <t>Structure</t>
   </si>
@@ -940,9 +940,6 @@
     <t>Person X is not married to person Y.</t>
   </si>
   <si>
-    <t>cNounVariableIsAdjectivePrepositioncNounVariableIs</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - in(X, Y) :- ...</t>
   </si>
   <si>
@@ -1064,6 +1061,83 @@
   </si>
   <si>
     <t>Person X is not reading.</t>
+  </si>
+  <si>
+    <t>cNounVariableVerbPnoun</t>
+  </si>
+  <si>
+    <r>
+      <t>.* [a-z] .*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>\\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.$</t>
+    </r>
+  </si>
+  <si>
+    <t>CNoun Variable Verb PNoun.</t>
+  </si>
+  <si>
+    <t>CNoun Variable Verb Preposition PNoun.</t>
+  </si>
+  <si>
+    <t>CNoun Variable not Verb Preposition PNoun.</t>
+  </si>
+  <si>
+    <t>CNoun Variable not Verb PNoun.</t>
+  </si>
+  <si>
+    <t>Person X studies computer science.</t>
+  </si>
+  <si>
+    <t>Person X does not studies computer science.</t>
+  </si>
+  <si>
+    <t>Person X studies at TU Wien.</t>
+  </si>
+  <si>
+    <t>Person X does not study at TU Wien.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - study_at(X, tuwien) :- ...</t>
+  </si>
+  <si>
+    <t>study_at(X, tuwien) :- ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - study(X, computerscience) :- ...</t>
+  </si>
+  <si>
+    <t>study(X, computerscience) :- ...</t>
+  </si>
+  <si>
+    <t>... :- study(X, computerscience), person(X).</t>
+  </si>
+  <si>
+    <t>... :- not study(X, computerscience), person(X).</t>
+  </si>
+  <si>
+    <t>... :- study_at(X, tuwien), person(X).</t>
+  </si>
+  <si>
+    <t>... :- not study_at(X, tuwien), person(X).</t>
+  </si>
+  <si>
+    <t>cNounVariableIsAdjectivePrepositioncNounVariable</t>
   </si>
 </sst>
 </file>
@@ -1148,8 +1222,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="99">
+  <cellStyleXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1265,7 +1353,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="99">
+  <cellStyles count="113">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1315,6 +1403,13 @@
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1364,6 +1459,13 @@
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1639,10 +1741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H65"/>
+  <dimension ref="A3:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" zoomScale="108" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="108" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1651,7 +1753,7 @@
     <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.83203125" bestFit="1" customWidth="1"/>
@@ -1829,25 +1931,25 @@
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1855,25 +1957,25 @@
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="G11" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>262</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1881,22 +1983,22 @@
         <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1904,22 +2006,22 @@
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1927,25 +2029,25 @@
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1953,25 +2055,25 @@
         <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1979,22 +2081,22 @@
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2002,22 +2104,22 @@
         <v>14</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -2463,16 +2565,16 @@
         <v>232</v>
       </c>
       <c r="D36" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="E36" t="s">
         <v>233</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -2486,16 +2588,16 @@
         <v>232</v>
       </c>
       <c r="D37" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="E37" t="s">
         <v>234</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -2509,16 +2611,16 @@
         <v>232</v>
       </c>
       <c r="D38" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="E38" t="s">
         <v>235</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -2532,16 +2634,16 @@
         <v>232</v>
       </c>
       <c r="D39" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="E39" t="s">
         <v>236</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -2728,148 +2830,142 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48">
+    <row r="48" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
         <v>45</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D48" t="s">
-        <v>89</v>
-      </c>
-      <c r="E48" t="s">
-        <v>87</v>
-      </c>
-      <c r="G48" t="s">
-        <v>84</v>
-      </c>
-      <c r="H48" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="B48" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="6">
         <v>46</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D49" t="s">
-        <v>89</v>
-      </c>
-      <c r="E49" t="s">
-        <v>92</v>
-      </c>
-      <c r="G49" t="s">
-        <v>93</v>
-      </c>
-      <c r="H49" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="B49" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
         <v>47</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D50" t="s">
-        <v>89</v>
-      </c>
-      <c r="E50" t="s">
-        <v>129</v>
-      </c>
-      <c r="G50" t="s">
-        <v>133</v>
-      </c>
-      <c r="H50" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="B50" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
         <v>48</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D51" t="s">
-        <v>89</v>
-      </c>
-      <c r="E51" t="s">
-        <v>130</v>
-      </c>
-      <c r="G51" t="s">
-        <v>134</v>
-      </c>
-      <c r="H51" t="s">
-        <v>132</v>
+      <c r="B51" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>49</v>
       </c>
-      <c r="B52" t="s">
-        <v>96</v>
+      <c r="B52" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D52" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E52" t="s">
-        <v>100</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="G52" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="H52" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>50</v>
       </c>
-      <c r="B53" t="s">
-        <v>97</v>
+      <c r="B53" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D53" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E53" t="s">
-        <v>101</v>
-      </c>
-      <c r="F53" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="G53" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="H53" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -2877,25 +2973,22 @@
         <v>51</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D54" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E54" t="s">
-        <v>108</v>
-      </c>
-      <c r="F54" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="G54" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="H54" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -2903,25 +2996,22 @@
         <v>52</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D55" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E55" t="s">
-        <v>114</v>
-      </c>
-      <c r="F55" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="G55" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="H55" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -2929,45 +3019,51 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="D56" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="E56" t="s">
-        <v>149</v>
+        <v>100</v>
+      </c>
+      <c r="F56" t="s">
+        <v>102</v>
       </c>
       <c r="G56" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="H56" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>54</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>148</v>
+      <c r="B57" t="s">
+        <v>97</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="D57" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="E57" t="s">
-        <v>150</v>
+        <v>101</v>
+      </c>
+      <c r="F57" t="s">
+        <v>105</v>
       </c>
       <c r="G57" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="H57" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -2975,19 +3071,25 @@
         <v>55</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="D58" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="E58" t="s">
-        <v>159</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>154</v>
+        <v>108</v>
+      </c>
+      <c r="F58" t="s">
+        <v>109</v>
+      </c>
+      <c r="G58" t="s">
+        <v>110</v>
+      </c>
+      <c r="H58" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -2995,42 +3097,48 @@
         <v>56</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="D59" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="E59" t="s">
-        <v>161</v>
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
+        <v>112</v>
       </c>
       <c r="G59" t="s">
-        <v>160</v>
+        <v>113</v>
+      </c>
+      <c r="H59" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>57</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>164</v>
+      <c r="B60" t="s">
+        <v>147</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="D60" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="E60" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="G60" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="H60" t="s">
-        <v>166</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -3038,35 +3146,121 @@
         <v>58</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" t="s">
+        <v>146</v>
+      </c>
+      <c r="E61" t="s">
+        <v>150</v>
+      </c>
+      <c r="G61" t="s">
+        <v>152</v>
+      </c>
+      <c r="H61" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D62" t="s">
+        <v>155</v>
+      </c>
+      <c r="E62" t="s">
+        <v>159</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D63" t="s">
+        <v>155</v>
+      </c>
+      <c r="E63" t="s">
+        <v>161</v>
+      </c>
+      <c r="G63" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D64" t="s">
+        <v>163</v>
+      </c>
+      <c r="E64" t="s">
+        <v>167</v>
+      </c>
+      <c r="G64" t="s">
+        <v>170</v>
+      </c>
+      <c r="H64" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D65" t="s">
         <v>163</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E65" t="s">
         <v>168</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G65" t="s">
         <v>169</v>
       </c>
-      <c r="H61" s="5" t="s">
+      <c r="H65" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B62" s="2"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B63" s="2"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B64" s="2"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65" s="2"/>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B69" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sentences.xlsx
+++ b/sentences.xlsx
@@ -2,19 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
-  <workbookPr/>
+  <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiaskain/Google Drive/TU/6.Semester SS17/Bachelorarbeit/CNL/cnl2asp/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
+  <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="10000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="331">
   <si>
     <t>Structure</t>
   </si>
@@ -1138,6 +1140,168 @@
   </si>
   <si>
     <t>cNounVariableIsAdjectivePrepositioncNounVariable</t>
+  </si>
+  <si>
+    <t>pNounIsCNounOfCNounVariable</t>
+  </si>
+  <si>
+    <t>Bob is the father of person X.</t>
+  </si>
+  <si>
+    <t>father(bob, X) :- ...</t>
+  </si>
+  <si>
+    <t>Bob is not the father of person X.</t>
+  </si>
+  <si>
+    <t>PNoun is not [the] CNoun of [a] CNoun Variable.</t>
+  </si>
+  <si>
+    <t>PNoun is [the] CNoun of [a] CNoun Variable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - father(bob, X) :- ...</t>
+  </si>
+  <si>
+    <t>... :- father(bob, X), person(X).</t>
+  </si>
+  <si>
+    <t>... :- not father(bob, X), person(X).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">.* is(n't | n't | not | ).* of .* [a-z] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>\\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>[a] CNoun Variable is not [the] CNoun of [a] PNoun.</t>
+  </si>
+  <si>
+    <t>[a] CNoun Variable is [the] CNoun of [a] PNoun.</t>
+  </si>
+  <si>
+    <r>
+      <t>.* [a-z] is(n't | n't | not | ).* of .*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>\\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>cNounVariableIsCNounOfPNoun</t>
+  </si>
+  <si>
+    <t>Person X is the father of bob.</t>
+  </si>
+  <si>
+    <t>Person X is not the father of bob.</t>
+  </si>
+  <si>
+    <t>father(X, bob) :- ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - father(X, bob) :- ...</t>
+  </si>
+  <si>
+    <t>... :- father(X, bob), person(X).</t>
+  </si>
+  <si>
+    <t>... :- not father(X, bob), person(X).</t>
+  </si>
+  <si>
+    <t>PNoun is [the] CNoun of [a] PNoun.</t>
+  </si>
+  <si>
+    <t>PNoun is not [the] CNoun of [a] PNoun.</t>
+  </si>
+  <si>
+    <r>
+      <t>.* is(n't | n't | not | ).* of .*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>\\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>pNounIsCNounOfPNoun</t>
+  </si>
+  <si>
+    <t>Bob is the father of roberta.</t>
+  </si>
+  <si>
+    <t>Bob is not the father of roberta.</t>
+  </si>
+  <si>
+    <t>father(bob, roberta) :- ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - father(bob, roberta) :- ...</t>
+  </si>
+  <si>
+    <t>father(bob, roberta).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - father(bob, roberta).</t>
+  </si>
+  <si>
+    <t>... :- father(bob, roberta).</t>
+  </si>
+  <si>
+    <t>... :- not father(bob, roberta).</t>
+  </si>
+  <si>
+    <t>Nr.</t>
+  </si>
+  <si>
+    <t>asdfasldkfjöalksdfjölajksd</t>
   </si>
 </sst>
 </file>
@@ -1204,7 +1368,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1221,8 +1385,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="113">
+  <cellStyleXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1336,8 +1568,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1352,8 +1602,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="113">
+  <cellStyles count="131">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1410,6 +1675,15 @@
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1466,6 +1740,15 @@
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1741,10 +2024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H69"/>
+  <dimension ref="A3:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="108" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView showRuler="0" zoomScale="108" workbookViewId="0">
+      <selection activeCell="B25" sqref="A3:H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3251,16 +3534,1013 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B66" s="2"/>
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E66" t="s">
+        <v>298</v>
+      </c>
+      <c r="G66" t="s">
+        <v>304</v>
+      </c>
+      <c r="H66" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B67" s="2"/>
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E67" t="s">
+        <v>300</v>
+      </c>
+      <c r="G67" t="s">
+        <v>305</v>
+      </c>
+      <c r="H67" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B68" s="2"/>
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D68" t="s">
+        <v>310</v>
+      </c>
+      <c r="E68" t="s">
+        <v>311</v>
+      </c>
+      <c r="G68" t="s">
+        <v>315</v>
+      </c>
+      <c r="H68" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B69" s="2"/>
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D69" t="s">
+        <v>310</v>
+      </c>
+      <c r="E69" t="s">
+        <v>312</v>
+      </c>
+      <c r="G69" t="s">
+        <v>316</v>
+      </c>
+      <c r="H69" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D70" t="s">
+        <v>320</v>
+      </c>
+      <c r="E70" t="s">
+        <v>321</v>
+      </c>
+      <c r="F70" t="s">
+        <v>325</v>
+      </c>
+      <c r="G70" t="s">
+        <v>327</v>
+      </c>
+      <c r="H70" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D71" t="s">
+        <v>320</v>
+      </c>
+      <c r="E71" t="s">
+        <v>322</v>
+      </c>
+      <c r="F71" t="s">
+        <v>326</v>
+      </c>
+      <c r="G71" t="s">
+        <v>328</v>
+      </c>
+      <c r="H71" t="s">
+        <v>324</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="55.33203125" customWidth="1"/>
+    <col min="3" max="3" width="40.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>12</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>13</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>15</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>16</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>17</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>18</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>19</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>20</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>21</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>22</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>23</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <v>24</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
+        <v>25</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
+        <v>26</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
+        <v>27</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
+        <v>28</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
+        <v>29</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15">
+        <v>30</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
+        <v>31</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15">
+        <v>32</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15">
+        <v>33</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15">
+        <v>34</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15">
+        <v>35</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15">
+        <v>36</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="15">
+        <v>37</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15">
+        <v>38</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="15">
+        <v>39</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15">
+        <v>40</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15">
+        <v>41</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="15">
+        <v>42</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="15">
+        <v>43</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="15">
+        <v>44</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="15">
+        <v>45</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="15">
+        <v>46</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="15">
+        <v>47</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="15">
+        <v>48</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="15">
+        <v>49</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="15">
+        <v>50</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="15">
+        <v>51</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="15">
+        <v>52</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="15">
+        <v>53</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="15">
+        <v>54</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="15">
+        <v>55</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="15">
+        <v>56</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="15">
+        <v>57</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="15">
+        <v>58</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="15">
+        <v>59</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="15">
+        <v>60</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="15">
+        <v>61</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="15">
+        <v>62</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="15">
+        <v>63</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="15">
+        <v>64</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="15">
+        <v>65</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="15">
+        <v>66</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="15">
+        <v>67</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="15">
+        <v>68</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>330</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sentences.xlsx
+++ b/sentences.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="362">
   <si>
     <t>Structure</t>
   </si>
@@ -1302,6 +1302,99 @@
   </si>
   <si>
     <t>asdfasldkfjöalksdfjölajksd</t>
+  </si>
+  <si>
+    <t>PNoun is abnormal with respect to DefaultRuleTag.</t>
+  </si>
+  <si>
+    <t>.* is abnormal with respect to .*\\.</t>
+  </si>
+  <si>
+    <t>Roberta is abnormal with respect to d1.</t>
+  </si>
+  <si>
+    <t>ab(d1,roberta).</t>
+  </si>
+  <si>
+    <t>Variable is abnormal with respect to DefaultRuleTag.</t>
+  </si>
+  <si>
+    <t>X is abnormal with respect to d1.</t>
+  </si>
+  <si>
+    <t>CNoun normally Verb.</t>
+  </si>
+  <si>
+    <t>.* normally .*\\.</t>
+  </si>
+  <si>
+    <t>Birds normally fly.</t>
+  </si>
+  <si>
+    <t>CNoun normally not Verb.</t>
+  </si>
+  <si>
+    <t>Animals normally do not fly.</t>
+  </si>
+  <si>
+    <t>CNoun normally are Adjective.</t>
+  </si>
+  <si>
+    <t>.* normally are(n't | n't | not | ).*\\.</t>
+  </si>
+  <si>
+    <t>Birds normally are beautifull.</t>
+  </si>
+  <si>
+    <t>CNoun normally are not Adjective.</t>
+  </si>
+  <si>
+    <t>Birds normally are not ugly.</t>
+  </si>
+  <si>
+    <t>CNoun normally are Adjective Preposition CNoun.</t>
+  </si>
+  <si>
+    <t>Students normally are afraid of math.</t>
+  </si>
+  <si>
+    <t>CNoun normally are not Adjective Preposition CNoun.</t>
+  </si>
+  <si>
+    <t>Students normally are not afraid of architecture.</t>
+  </si>
+  <si>
+    <t>Default Sentences</t>
+  </si>
+  <si>
+    <t>cNounNormallyAreAdjectivePrepositionCNoun</t>
+  </si>
+  <si>
+    <t>cNounNormallyAreAdjective</t>
+  </si>
+  <si>
+    <t>cNounNormallyVerb</t>
+  </si>
+  <si>
+    <t>fly(X) :- bird(X), not ab(d1, X), not -fly(X).</t>
+  </si>
+  <si>
+    <t>-fly(X) :- animal(X), not ab(d2, X), not fly(X).</t>
+  </si>
+  <si>
+    <t>beautifull(X) :- bird(X), not ab(d3, X), not -beautifull(X).</t>
+  </si>
+  <si>
+    <t>-ugly(X) :- bird(X), not ab(d4, X), not ugly(X).</t>
+  </si>
+  <si>
+    <t>afraid_of(X, math) :- student(X), not ab(d5, X), not -afraid_of(X, math).</t>
+  </si>
+  <si>
+    <t>-afraid_of(X, architecture) :- student(X), not ab(d6, X), not afraid_of(X, architecture).</t>
+  </si>
+  <si>
+    <t>pNounIsAbnormalWithRespectToDefaultRuleTag</t>
   </si>
 </sst>
 </file>
@@ -1454,8 +1547,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="131">
+  <cellStyleXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1618,7 +1725,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="131">
+  <cellStyles count="145">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1684,6 +1791,13 @@
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1749,6 +1863,13 @@
     <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2024,10 +2145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H71"/>
+  <dimension ref="A3:I83"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="108" workbookViewId="0">
-      <selection activeCell="B25" sqref="A3:H71"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A66" zoomScale="108" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2036,13 +2157,14 @@
     <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="69.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2064,8 +2186,11 @@
       <c r="H3" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2091,7 +2216,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2117,7 +2242,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2140,7 +2265,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2163,7 +2288,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2186,7 +2311,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2209,7 +2334,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -2235,7 +2360,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -2261,7 +2386,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -2284,7 +2409,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -2307,7 +2432,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -2333,7 +2458,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -2359,7 +2484,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -3510,7 +3635,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>62</v>
       </c>
@@ -3533,7 +3658,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>63</v>
       </c>
@@ -3556,7 +3681,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>64</v>
       </c>
@@ -3579,7 +3704,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>65</v>
       </c>
@@ -3602,7 +3727,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>66</v>
       </c>
@@ -3625,7 +3750,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>67</v>
       </c>
@@ -3651,7 +3776,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>68</v>
       </c>
@@ -3675,6 +3800,145 @@
       </c>
       <c r="H71" t="s">
         <v>324</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>331</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D74" t="s">
+        <v>361</v>
+      </c>
+      <c r="E74" t="s">
+        <v>333</v>
+      </c>
+      <c r="F74" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>335</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D75" t="s">
+        <v>361</v>
+      </c>
+      <c r="E75" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>337</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D78" t="s">
+        <v>354</v>
+      </c>
+      <c r="E78" t="s">
+        <v>339</v>
+      </c>
+      <c r="I78" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>340</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D79" t="s">
+        <v>354</v>
+      </c>
+      <c r="E79" t="s">
+        <v>341</v>
+      </c>
+      <c r="I79" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>342</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D80" t="s">
+        <v>353</v>
+      </c>
+      <c r="E80" t="s">
+        <v>344</v>
+      </c>
+      <c r="I80" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>345</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D81" t="s">
+        <v>353</v>
+      </c>
+      <c r="E81" t="s">
+        <v>346</v>
+      </c>
+      <c r="I81" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>347</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D82" t="s">
+        <v>352</v>
+      </c>
+      <c r="E82" t="s">
+        <v>348</v>
+      </c>
+      <c r="I82" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>349</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D83" t="s">
+        <v>352</v>
+      </c>
+      <c r="E83" t="s">
+        <v>350</v>
+      </c>
+      <c r="I83" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -3687,7 +3951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A44" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A44" workbookViewId="0">
       <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>

--- a/sentences.xlsx
+++ b/sentences.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="10000"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="421">
   <si>
     <t>Structure</t>
   </si>
@@ -697,8 +698,356 @@
     <t>Person X holds less than two jobs Y.</t>
   </si>
   <si>
-    <r>
-      <t>a .* is(n't | n't | not | )a .* of a .*</t>
+    <t>aCNounVariableIsACNounOfACNounVariable</t>
+  </si>
+  <si>
+    <t>a CNoun Variable is a CNoun of a Cnoun Variable.</t>
+  </si>
+  <si>
+    <t>a CNoun Variable is not a CNoun of a CNoun Variable.</t>
+  </si>
+  <si>
+    <t>husband(X, Y) :- ...</t>
+  </si>
+  <si>
+    <t>A person X is a husband of a person Y.</t>
+  </si>
+  <si>
+    <t>A person X is not a husband of a person Y.</t>
+  </si>
+  <si>
+    <t>... :- not husband(X, Y), person(X), person(Y).</t>
+  </si>
+  <si>
+    <t>... :- husband(X, Y), person(X), person(Y).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - husband(X, Y) :- ...</t>
+  </si>
+  <si>
+    <t>Roberta is at work.</t>
+  </si>
+  <si>
+    <t>Roberta is not at work.</t>
+  </si>
+  <si>
+    <t>pNounIsAdjectivePrepositionPNoun</t>
+  </si>
+  <si>
+    <t>at(roberta, work).</t>
+  </si>
+  <si>
+    <t>... :- at(roberta, work).</t>
+  </si>
+  <si>
+    <t>... :- not at(roberta, work).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - at(roberta, work).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - at(roberta, work) :- ...</t>
+  </si>
+  <si>
+    <t>at(roberta, work) :- ...</t>
+  </si>
+  <si>
+    <t>Roberta is married to bob.</t>
+  </si>
+  <si>
+    <t>Roberta is not married to bob.</t>
+  </si>
+  <si>
+    <t>married_to(roberta, bob).</t>
+  </si>
+  <si>
+    <t>... :- married_to(roberta, bob).</t>
+  </si>
+  <si>
+    <t>... :- not married_to(roberta, bob).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - married_to(roberta, bob).</t>
+  </si>
+  <si>
+    <t>married_to(roberta, bob) :- ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - married_to(roberta, bob) :- ...</t>
+  </si>
+  <si>
+    <t>Person X is at work.</t>
+  </si>
+  <si>
+    <t>Person X is not at work.</t>
+  </si>
+  <si>
+    <t>Person X is married to bob.</t>
+  </si>
+  <si>
+    <t>Person X is not married to bob.</t>
+  </si>
+  <si>
+    <t>cNounVariableIsAdjectivePrepositionPNoun</t>
+  </si>
+  <si>
+    <t>married_to(X, bob) :- ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - married_to(X, bob) :- ...</t>
+  </si>
+  <si>
+    <t>... :- married_to(X, bob), person(X).</t>
+  </si>
+  <si>
+    <t>... :- not married_to(X, bob), person(X).</t>
+  </si>
+  <si>
+    <t>at(X, work) :- ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - at(X, work) :- ...</t>
+  </si>
+  <si>
+    <t>... :- at(X, work), person(X).</t>
+  </si>
+  <si>
+    <t>... :- not at(X, work), person(X).</t>
+  </si>
+  <si>
+    <t>CNoun Variable is Preposition CNoun Variable.</t>
+  </si>
+  <si>
+    <t>PNoun is Preposition PNoun.</t>
+  </si>
+  <si>
+    <t>PNoun is not Preposition PNoun.</t>
+  </si>
+  <si>
+    <t>PNoun is Adjective Preposition PNoun.</t>
+  </si>
+  <si>
+    <t>PNoun is not Adjective Preposition PNoun.</t>
+  </si>
+  <si>
+    <t>CNoun Variable is Preposition PNoun.</t>
+  </si>
+  <si>
+    <t>CNoun Variable is not Preposition PNoun.</t>
+  </si>
+  <si>
+    <t>CNoun Variable is Adjective Preposition PNoun.</t>
+  </si>
+  <si>
+    <t>CNoun Variable is not Adjective Preposition PNoun.</t>
+  </si>
+  <si>
+    <t>CNoun Variable is not Preposition CNoun Variable.</t>
+  </si>
+  <si>
+    <t>CNoun Variable is Adjective Preposition CNoun Variable.</t>
+  </si>
+  <si>
+    <t>CNoun Variable is not Adjective Preposition CNoun Variable.</t>
+  </si>
+  <si>
+    <t>PNoun is Preposition CNoun Variable.</t>
+  </si>
+  <si>
+    <t>PNoun is not Preposition CNoun Variable.</t>
+  </si>
+  <si>
+    <t>PNoun is Adjective Preposition CNoun Variable.</t>
+  </si>
+  <si>
+    <t>PNoun is not Adjective Preposition CNoun Variable.</t>
+  </si>
+  <si>
+    <t>.* is(n't | n't | not | ).* [a-z] \\.$</t>
+  </si>
+  <si>
+    <t>Roberta is married to person X.</t>
+  </si>
+  <si>
+    <t>Roberta is not married to person X.</t>
+  </si>
+  <si>
+    <t>Roberta is in room X.</t>
+  </si>
+  <si>
+    <t>Roberta is not in room X.</t>
+  </si>
+  <si>
+    <t>in(roberta, X) :- ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - in(roberta, X) :- ...</t>
+  </si>
+  <si>
+    <t>married_to(roberta, X) :- ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - married_to(roberta, X) :- ...</t>
+  </si>
+  <si>
+    <t>... :- in(roberta, X), room(X).</t>
+  </si>
+  <si>
+    <t>... :- not in(roberta, X), room(X).</t>
+  </si>
+  <si>
+    <t>... :- married_to(roberta, X), person(X).</t>
+  </si>
+  <si>
+    <t>... :- not married_to(roberta, X), person(X).</t>
+  </si>
+  <si>
+    <t>pNounIsAdjectivePrepositionCNounVariable</t>
+  </si>
+  <si>
+    <t>.* [a-z] is(n't | n't | not | ).* [a-z] \\.$</t>
+  </si>
+  <si>
+    <t>Person X is in room Y.</t>
+  </si>
+  <si>
+    <t>Person X is not in room Y.</t>
+  </si>
+  <si>
+    <t>Person X is married to person Y.</t>
+  </si>
+  <si>
+    <t>Person X is not married to person Y.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - in(X, Y) :- ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - married_to(X, Y) :- ...</t>
+  </si>
+  <si>
+    <t>... :- in(X, Y), person(X), room(Y).</t>
+  </si>
+  <si>
+    <t>married_to(X, Y) :- ...</t>
+  </si>
+  <si>
+    <t>in(X, Y) :- ...</t>
+  </si>
+  <si>
+    <t>... :- not in(X, Y), person(X), room(Y).</t>
+  </si>
+  <si>
+    <t>... :- married_to(X, Y), person(X), person(Y).</t>
+  </si>
+  <si>
+    <t>... :- not married_to(X, Y), person(X), person(Y).</t>
+  </si>
+  <si>
+    <t>PNoun is Verb.</t>
+  </si>
+  <si>
+    <t>CNoun Variable is Verb.</t>
+  </si>
+  <si>
+    <t>PNoun Verb.</t>
+  </si>
+  <si>
+    <t>CNoun Variable Verb.</t>
+  </si>
+  <si>
+    <t>pNounVerb</t>
+  </si>
+  <si>
+    <t>cNounVariableVerb</t>
+  </si>
+  <si>
+    <t>pNounIsVerb</t>
+  </si>
+  <si>
+    <t>cNounVariableisVerb</t>
+  </si>
+  <si>
+    <t>Roberta reads.</t>
+  </si>
+  <si>
+    <t>Person X reads.</t>
+  </si>
+  <si>
+    <t>Roberta is reading.</t>
+  </si>
+  <si>
+    <t>Person X is reading.</t>
+  </si>
+  <si>
+    <t>read(roberta).</t>
+  </si>
+  <si>
+    <t>read(roberta) :- ...</t>
+  </si>
+  <si>
+    <t>Pnoun not Verb.</t>
+  </si>
+  <si>
+    <t>Roberta does not read.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - read(roberta).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - read(roberta) :- ...</t>
+  </si>
+  <si>
+    <t>... :- read(roberta).</t>
+  </si>
+  <si>
+    <t>... :- not read(roberta).</t>
+  </si>
+  <si>
+    <t>read(X) :- ...</t>
+  </si>
+  <si>
+    <t>... :- read(X), person(X).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - read(X) :- ...</t>
+  </si>
+  <si>
+    <t>... :- not read(X), person(X).</t>
+  </si>
+  <si>
+    <t>Person X does not read.</t>
+  </si>
+  <si>
+    <t>Roberta is not reading.</t>
+  </si>
+  <si>
+    <t>CNoun Variable not Verb.</t>
+  </si>
+  <si>
+    <t>PNoun is not Verb.</t>
+  </si>
+  <si>
+    <t>CNoun Variable is not Verb.</t>
+  </si>
+  <si>
+    <t>.* is(n't | n't | not | ).*\\.$</t>
+  </si>
+  <si>
+    <t>.* [a-z] .*\\.$</t>
+  </si>
+  <si>
+    <t>.* .*\\.$</t>
+  </si>
+  <si>
+    <t>Person X is not reading.</t>
+  </si>
+  <si>
+    <t>cNounVariableVerbPnoun</t>
+  </si>
+  <si>
+    <r>
+      <t>.* [a-z] .*</t>
     </r>
     <r>
       <rPr>
@@ -716,360 +1065,429 @@
         <color rgb="FF008000"/>
         <rFont val="Menlo"/>
       </rPr>
+      <t>.$</t>
+    </r>
+  </si>
+  <si>
+    <t>CNoun Variable Verb PNoun.</t>
+  </si>
+  <si>
+    <t>CNoun Variable Verb Preposition PNoun.</t>
+  </si>
+  <si>
+    <t>CNoun Variable not Verb Preposition PNoun.</t>
+  </si>
+  <si>
+    <t>CNoun Variable not Verb PNoun.</t>
+  </si>
+  <si>
+    <t>Person X studies computer science.</t>
+  </si>
+  <si>
+    <t>Person X does not studies computer science.</t>
+  </si>
+  <si>
+    <t>Person X studies at TU Wien.</t>
+  </si>
+  <si>
+    <t>Person X does not study at TU Wien.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - study_at(X, tuwien) :- ...</t>
+  </si>
+  <si>
+    <t>study_at(X, tuwien) :- ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - study(X, computerscience) :- ...</t>
+  </si>
+  <si>
+    <t>study(X, computerscience) :- ...</t>
+  </si>
+  <si>
+    <t>... :- study(X, computerscience), person(X).</t>
+  </si>
+  <si>
+    <t>... :- not study(X, computerscience), person(X).</t>
+  </si>
+  <si>
+    <t>... :- study_at(X, tuwien), person(X).</t>
+  </si>
+  <si>
+    <t>... :- not study_at(X, tuwien), person(X).</t>
+  </si>
+  <si>
+    <t>cNounVariableIsAdjectivePrepositioncNounVariable</t>
+  </si>
+  <si>
+    <t>pNounIsCNounOfCNounVariable</t>
+  </si>
+  <si>
+    <t>Bob is the father of person X.</t>
+  </si>
+  <si>
+    <t>father(bob, X) :- ...</t>
+  </si>
+  <si>
+    <t>Bob is not the father of person X.</t>
+  </si>
+  <si>
+    <t>PNoun is not [the] CNoun of [a] CNoun Variable.</t>
+  </si>
+  <si>
+    <t>PNoun is [the] CNoun of [a] CNoun Variable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - father(bob, X) :- ...</t>
+  </si>
+  <si>
+    <t>... :- father(bob, X), person(X).</t>
+  </si>
+  <si>
+    <t>... :- not father(bob, X), person(X).</t>
+  </si>
+  <si>
+    <t>[a] CNoun Variable is not [the] CNoun of [a] PNoun.</t>
+  </si>
+  <si>
+    <t>[a] CNoun Variable is [the] CNoun of [a] PNoun.</t>
+  </si>
+  <si>
+    <t>cNounVariableIsCNounOfPNoun</t>
+  </si>
+  <si>
+    <t>Person X is the father of bob.</t>
+  </si>
+  <si>
+    <t>Person X is not the father of bob.</t>
+  </si>
+  <si>
+    <t>father(X, bob) :- ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - father(X, bob) :- ...</t>
+  </si>
+  <si>
+    <t>... :- father(X, bob), person(X).</t>
+  </si>
+  <si>
+    <t>... :- not father(X, bob), person(X).</t>
+  </si>
+  <si>
+    <t>PNoun is [the] CNoun of [a] PNoun.</t>
+  </si>
+  <si>
+    <t>PNoun is not [the] CNoun of [a] PNoun.</t>
+  </si>
+  <si>
+    <t>pNounIsCNounOfPNoun</t>
+  </si>
+  <si>
+    <t>Bob is the father of roberta.</t>
+  </si>
+  <si>
+    <t>Bob is not the father of roberta.</t>
+  </si>
+  <si>
+    <t>father(bob, roberta) :- ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - father(bob, roberta) :- ...</t>
+  </si>
+  <si>
+    <t>father(bob, roberta).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - father(bob, roberta).</t>
+  </si>
+  <si>
+    <t>... :- father(bob, roberta).</t>
+  </si>
+  <si>
+    <t>... :- not father(bob, roberta).</t>
+  </si>
+  <si>
+    <t>Nr.</t>
+  </si>
+  <si>
+    <t>asdfasldkfjöalksdfjölajksd</t>
+  </si>
+  <si>
+    <t>PNoun is abnormal with respect to DefaultRuleTag.</t>
+  </si>
+  <si>
+    <t>Roberta is abnormal with respect to d1.</t>
+  </si>
+  <si>
+    <t>Variable is abnormal with respect to DefaultRuleTag.</t>
+  </si>
+  <si>
+    <t>X is abnormal with respect to d1.</t>
+  </si>
+  <si>
+    <t>CNoun normally Verb.</t>
+  </si>
+  <si>
+    <t>Birds normally fly.</t>
+  </si>
+  <si>
+    <t>CNoun normally not Verb.</t>
+  </si>
+  <si>
+    <t>Animals normally do not fly.</t>
+  </si>
+  <si>
+    <t>CNoun normally are Adjective.</t>
+  </si>
+  <si>
+    <t>Birds normally are beautifull.</t>
+  </si>
+  <si>
+    <t>CNoun normally are not Adjective.</t>
+  </si>
+  <si>
+    <t>Birds normally are not ugly.</t>
+  </si>
+  <si>
+    <t>CNoun normally are Adjective Preposition CNoun.</t>
+  </si>
+  <si>
+    <t>Students normally are afraid of math.</t>
+  </si>
+  <si>
+    <t>CNoun normally are not Adjective Preposition CNoun.</t>
+  </si>
+  <si>
+    <t>Students normally are not afraid of architecture.</t>
+  </si>
+  <si>
+    <t>Default Sentences</t>
+  </si>
+  <si>
+    <t>cNounNormallyAreAdjectivePrepositionCNoun</t>
+  </si>
+  <si>
+    <t>cNounNormallyAreAdjective</t>
+  </si>
+  <si>
+    <t>cNounNormallyVerb</t>
+  </si>
+  <si>
+    <t>fly(X) :- bird(X), not ab(d1, X), not -fly(X).</t>
+  </si>
+  <si>
+    <t>-fly(X) :- animal(X), not ab(d2, X), not fly(X).</t>
+  </si>
+  <si>
+    <t>beautifull(X) :- bird(X), not ab(d3, X), not -beautifull(X).</t>
+  </si>
+  <si>
+    <t>-ugly(X) :- bird(X), not ab(d4, X), not ugly(X).</t>
+  </si>
+  <si>
+    <t>afraid_of(X, math) :- student(X), not ab(d5, X), not -afraid_of(X, math).</t>
+  </si>
+  <si>
+    <t>-afraid_of(X, architecture) :- student(X), not ab(d6, X), not afraid_of(X, architecture).</t>
+  </si>
+  <si>
+    <t>pNounIsAbnormalWithRespectToDefaultRuleTag</t>
+  </si>
+  <si>
+    <r>
+      <t>All </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t> are </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>.</t>
     </r>
   </si>
   <si>
-    <t>aCNounVariableIsACNounOfACNounVariable</t>
-  </si>
-  <si>
-    <t>a CNoun Variable is a CNoun of a Cnoun Variable.</t>
-  </si>
-  <si>
-    <t>a CNoun Variable is not a CNoun of a CNoun Variable.</t>
-  </si>
-  <si>
-    <t>husband(X, Y) :- ...</t>
-  </si>
-  <si>
-    <t>A person X is a husband of a person Y.</t>
-  </si>
-  <si>
-    <t>A person X is not a husband of a person Y.</t>
-  </si>
-  <si>
-    <t>... :- not husband(X, Y), person(X), person(Y).</t>
-  </si>
-  <si>
-    <t>... :- husband(X, Y), person(X), person(Y).</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - husband(X, Y) :- ...</t>
-  </si>
-  <si>
-    <t>Roberta is at work.</t>
-  </si>
-  <si>
-    <t>Roberta is not at work.</t>
-  </si>
-  <si>
-    <t>pNounIsAdjectivePrepositionPNoun</t>
-  </si>
-  <si>
-    <t>at(roberta, work).</t>
-  </si>
-  <si>
-    <t>... :- at(roberta, work).</t>
-  </si>
-  <si>
-    <t>... :- not at(roberta, work).</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - at(roberta, work).</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - at(roberta, work) :- ...</t>
-  </si>
-  <si>
-    <t>at(roberta, work) :- ...</t>
-  </si>
-  <si>
-    <t>Roberta is married to bob.</t>
-  </si>
-  <si>
-    <t>Roberta is not married to bob.</t>
-  </si>
-  <si>
-    <t>married_to(roberta, bob).</t>
-  </si>
-  <si>
-    <t>... :- married_to(roberta, bob).</t>
-  </si>
-  <si>
-    <t>... :- not married_to(roberta, bob).</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - married_to(roberta, bob).</t>
-  </si>
-  <si>
-    <t>married_to(roberta, bob) :- ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - married_to(roberta, bob) :- ...</t>
-  </si>
-  <si>
-    <t>Person X is at work.</t>
-  </si>
-  <si>
-    <t>Person X is not at work.</t>
-  </si>
-  <si>
-    <t>Person X is married to bob.</t>
-  </si>
-  <si>
-    <t>Person X is not married to bob.</t>
-  </si>
-  <si>
-    <t>cNounVariableIsAdjectivePrepositionPNoun</t>
-  </si>
-  <si>
-    <t>married_to(X, bob) :- ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - married_to(X, bob) :- ...</t>
-  </si>
-  <si>
-    <t>... :- married_to(X, bob), person(X).</t>
-  </si>
-  <si>
-    <t>... :- not married_to(X, bob), person(X).</t>
-  </si>
-  <si>
-    <t>at(X, work) :- ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - at(X, work) :- ...</t>
-  </si>
-  <si>
-    <t>... :- at(X, work), person(X).</t>
-  </si>
-  <si>
-    <t>... :- not at(X, work), person(X).</t>
-  </si>
-  <si>
-    <t>CNoun Variable is Preposition CNoun Variable.</t>
-  </si>
-  <si>
-    <t>PNoun is Preposition PNoun.</t>
-  </si>
-  <si>
-    <t>PNoun is not Preposition PNoun.</t>
-  </si>
-  <si>
-    <t>PNoun is Adjective Preposition PNoun.</t>
-  </si>
-  <si>
-    <t>PNoun is not Adjective Preposition PNoun.</t>
-  </si>
-  <si>
-    <t>CNoun Variable is Preposition PNoun.</t>
-  </si>
-  <si>
-    <t>CNoun Variable is not Preposition PNoun.</t>
-  </si>
-  <si>
-    <t>CNoun Variable is Adjective Preposition PNoun.</t>
-  </si>
-  <si>
-    <t>CNoun Variable is not Adjective Preposition PNoun.</t>
-  </si>
-  <si>
-    <t>CNoun Variable is not Preposition CNoun Variable.</t>
-  </si>
-  <si>
-    <t>CNoun Variable is Adjective Preposition CNoun Variable.</t>
-  </si>
-  <si>
-    <t>CNoun Variable is not Adjective Preposition CNoun Variable.</t>
-  </si>
-  <si>
-    <t>PNoun is Preposition CNoun Variable.</t>
-  </si>
-  <si>
-    <t>PNoun is not Preposition CNoun Variable.</t>
-  </si>
-  <si>
-    <t>PNoun is Adjective Preposition CNoun Variable.</t>
-  </si>
-  <si>
-    <t>PNoun is not Adjective Preposition CNoun Variable.</t>
-  </si>
-  <si>
-    <t>.* is(n't | n't | not | ).* [a-z] \\.$</t>
-  </si>
-  <si>
-    <t>Roberta is married to person X.</t>
-  </si>
-  <si>
-    <t>Roberta is not married to person X.</t>
-  </si>
-  <si>
-    <t>Roberta is in room X.</t>
-  </si>
-  <si>
-    <t>Roberta is not in room X.</t>
-  </si>
-  <si>
-    <t>in(roberta, X) :- ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - in(roberta, X) :- ...</t>
-  </si>
-  <si>
-    <t>married_to(roberta, X) :- ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - married_to(roberta, X) :- ...</t>
-  </si>
-  <si>
-    <t>... :- in(roberta, X), room(X).</t>
-  </si>
-  <si>
-    <t>... :- not in(roberta, X), room(X).</t>
-  </si>
-  <si>
-    <t>... :- married_to(roberta, X), person(X).</t>
-  </si>
-  <si>
-    <t>... :- not married_to(roberta, X), person(X).</t>
-  </si>
-  <si>
-    <t>pNounIsAdjectivePrepositionCNounVariable</t>
-  </si>
-  <si>
-    <t>.* [a-z] is(n't | n't | not | ).* [a-z] \\.$</t>
-  </si>
-  <si>
-    <t>Person X is in room Y.</t>
-  </si>
-  <si>
-    <t>Person X is not in room Y.</t>
-  </si>
-  <si>
-    <t>Person X is married to person Y.</t>
-  </si>
-  <si>
-    <t>Person X is not married to person Y.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - in(X, Y) :- ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - married_to(X, Y) :- ...</t>
-  </si>
-  <si>
-    <t>... :- in(X, Y), person(X), room(Y).</t>
-  </si>
-  <si>
-    <t>married_to(X, Y) :- ...</t>
-  </si>
-  <si>
-    <t>in(X, Y) :- ...</t>
-  </si>
-  <si>
-    <t>... :- not in(X, Y), person(X), room(Y).</t>
-  </si>
-  <si>
-    <t>... :- married_to(X, Y), person(X), person(Y).</t>
-  </si>
-  <si>
-    <t>... :- not married_to(X, Y), person(X), person(Y).</t>
-  </si>
-  <si>
-    <t>PNoun is Verb.</t>
-  </si>
-  <si>
-    <t>CNoun Variable is Verb.</t>
-  </si>
-  <si>
-    <t>PNoun Verb.</t>
-  </si>
-  <si>
-    <t>CNoun Variable Verb.</t>
-  </si>
-  <si>
-    <t>pNounVerb</t>
-  </si>
-  <si>
-    <t>cNounVariableVerb</t>
-  </si>
-  <si>
-    <t>pNounIsVerb</t>
-  </si>
-  <si>
-    <t>cNounVariableisVerb</t>
-  </si>
-  <si>
-    <t>Roberta reads.</t>
-  </si>
-  <si>
-    <t>Person X reads.</t>
-  </si>
-  <si>
-    <t>Roberta is reading.</t>
-  </si>
-  <si>
-    <t>Person X is reading.</t>
-  </si>
-  <si>
-    <t>read(roberta).</t>
-  </si>
-  <si>
-    <t>read(roberta) :- ...</t>
-  </si>
-  <si>
-    <t>Pnoun not Verb.</t>
-  </si>
-  <si>
-    <t>Roberta does not read.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - read(roberta).</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - read(roberta) :- ...</t>
-  </si>
-  <si>
-    <t>... :- read(roberta).</t>
-  </si>
-  <si>
-    <t>... :- not read(roberta).</t>
-  </si>
-  <si>
-    <t>read(X) :- ...</t>
-  </si>
-  <si>
-    <t>... :- read(X), person(X).</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - read(X) :- ...</t>
-  </si>
-  <si>
-    <t>... :- not read(X), person(X).</t>
-  </si>
-  <si>
-    <t>Person X does not read.</t>
-  </si>
-  <si>
-    <t>Roberta is not reading.</t>
-  </si>
-  <si>
-    <t>CNoun Variable not Verb.</t>
-  </si>
-  <si>
-    <t>PNoun is not Verb.</t>
-  </si>
-  <si>
-    <t>CNoun Variable is not Verb.</t>
-  </si>
-  <si>
-    <t>.* is(n't | n't | not | ).*\\.$</t>
-  </si>
-  <si>
-    <t>.* [a-z] .*\\.$</t>
-  </si>
-  <si>
-    <t>.* .*\\.$</t>
-  </si>
-  <si>
-    <t>Person X is not reading.</t>
-  </si>
-  <si>
-    <t>cNounVariableVerbPnoun</t>
-  </si>
-  <si>
-    <r>
-      <t>.* [a-z] .*</t>
+    <r>
+      <t>No </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t> are </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Some </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t> are </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Some </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t> are not B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Exclude that A X is not B.</t>
+  </si>
+  <si>
+    <t>:- not B(X), A(X)</t>
+  </si>
+  <si>
+    <t>Exclude that A X is B.</t>
+  </si>
+  <si>
+    <t>:- B(X), A(X)</t>
+  </si>
+  <si>
+    <t>All politicians are crook.</t>
+  </si>
+  <si>
+    <t>No politicians are crook.</t>
+  </si>
+  <si>
+    <t>Some politicians are cruck.</t>
+  </si>
+  <si>
+    <t>:- #count{X: politician(X), crook(X)} &gt; 0</t>
+  </si>
+  <si>
+    <t>:- #count{X: politician(X), crook(X)} &gt; 1</t>
+  </si>
+  <si>
+    <t>All CNoun are CNoun.</t>
+  </si>
+  <si>
+    <t>All CNoun are Adjective.</t>
+  </si>
+  <si>
+    <t>No CNoun are CNoun.</t>
+  </si>
+  <si>
+    <t>No CNoun are Adjective.</t>
+  </si>
+  <si>
+    <t>Some CNoun are CNoun.</t>
+  </si>
+  <si>
+    <t>Some CNoun are Adjective.</t>
+  </si>
+  <si>
+    <r>
+      <t>a .* is(n't | n't | not | )a .* of a .*</t>
     </r>
     <r>
       <rPr>
@@ -1091,84 +1509,6 @@
     </r>
   </si>
   <si>
-    <t>CNoun Variable Verb PNoun.</t>
-  </si>
-  <si>
-    <t>CNoun Variable Verb Preposition PNoun.</t>
-  </si>
-  <si>
-    <t>CNoun Variable not Verb Preposition PNoun.</t>
-  </si>
-  <si>
-    <t>CNoun Variable not Verb PNoun.</t>
-  </si>
-  <si>
-    <t>Person X studies computer science.</t>
-  </si>
-  <si>
-    <t>Person X does not studies computer science.</t>
-  </si>
-  <si>
-    <t>Person X studies at TU Wien.</t>
-  </si>
-  <si>
-    <t>Person X does not study at TU Wien.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - study_at(X, tuwien) :- ...</t>
-  </si>
-  <si>
-    <t>study_at(X, tuwien) :- ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - study(X, computerscience) :- ...</t>
-  </si>
-  <si>
-    <t>study(X, computerscience) :- ...</t>
-  </si>
-  <si>
-    <t>... :- study(X, computerscience), person(X).</t>
-  </si>
-  <si>
-    <t>... :- not study(X, computerscience), person(X).</t>
-  </si>
-  <si>
-    <t>... :- study_at(X, tuwien), person(X).</t>
-  </si>
-  <si>
-    <t>... :- not study_at(X, tuwien), person(X).</t>
-  </si>
-  <si>
-    <t>cNounVariableIsAdjectivePrepositioncNounVariable</t>
-  </si>
-  <si>
-    <t>pNounIsCNounOfCNounVariable</t>
-  </si>
-  <si>
-    <t>Bob is the father of person X.</t>
-  </si>
-  <si>
-    <t>father(bob, X) :- ...</t>
-  </si>
-  <si>
-    <t>Bob is not the father of person X.</t>
-  </si>
-  <si>
-    <t>PNoun is not [the] CNoun of [a] CNoun Variable.</t>
-  </si>
-  <si>
-    <t>PNoun is [the] CNoun of [a] CNoun Variable.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - father(bob, X) :- ...</t>
-  </si>
-  <si>
-    <t>... :- father(bob, X), person(X).</t>
-  </si>
-  <si>
-    <t>... :- not father(bob, X), person(X).</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">.* is(n't | n't | not | ).* of .* [a-z] </t>
     </r>
@@ -1188,14 +1528,8 @@
         <color rgb="FF008000"/>
         <rFont val="Menlo"/>
       </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>[a] CNoun Variable is not [the] CNoun of [a] PNoun.</t>
-  </si>
-  <si>
-    <t>[a] CNoun Variable is [the] CNoun of [a] PNoun.</t>
+      <t>.$</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1217,35 +1551,8 @@
         <color rgb="FF008000"/>
         <rFont val="Menlo"/>
       </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>cNounVariableIsCNounOfPNoun</t>
-  </si>
-  <si>
-    <t>Person X is the father of bob.</t>
-  </si>
-  <si>
-    <t>Person X is not the father of bob.</t>
-  </si>
-  <si>
-    <t>father(X, bob) :- ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - father(X, bob) :- ...</t>
-  </si>
-  <si>
-    <t>... :- father(X, bob), person(X).</t>
-  </si>
-  <si>
-    <t>... :- not father(X, bob), person(X).</t>
-  </si>
-  <si>
-    <t>PNoun is [the] CNoun of [a] PNoun.</t>
-  </si>
-  <si>
-    <t>PNoun is not [the] CNoun of [a] PNoun.</t>
+      <t>.$</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1267,141 +1574,147 @@
         <color rgb="FF008000"/>
         <rFont val="Menlo"/>
       </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>pNounIsCNounOfPNoun</t>
-  </si>
-  <si>
-    <t>Bob is the father of roberta.</t>
-  </si>
-  <si>
-    <t>Bob is not the father of roberta.</t>
-  </si>
-  <si>
-    <t>father(bob, roberta) :- ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - father(bob, roberta) :- ...</t>
-  </si>
-  <si>
-    <t>father(bob, roberta).</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - father(bob, roberta).</t>
-  </si>
-  <si>
-    <t>... :- father(bob, roberta).</t>
-  </si>
-  <si>
-    <t>... :- not father(bob, roberta).</t>
-  </si>
-  <si>
-    <t>Nr.</t>
-  </si>
-  <si>
-    <t>asdfasldkfjöalksdfjölajksd</t>
-  </si>
-  <si>
-    <t>PNoun is abnormal with respect to DefaultRuleTag.</t>
-  </si>
-  <si>
-    <t>.* is abnormal with respect to .*\\.</t>
-  </si>
-  <si>
-    <t>Roberta is abnormal with respect to d1.</t>
-  </si>
-  <si>
-    <t>ab(d1,roberta).</t>
-  </si>
-  <si>
-    <t>Variable is abnormal with respect to DefaultRuleTag.</t>
-  </si>
-  <si>
-    <t>X is abnormal with respect to d1.</t>
-  </si>
-  <si>
-    <t>CNoun normally Verb.</t>
-  </si>
-  <si>
-    <t>.* normally .*\\.</t>
-  </si>
-  <si>
-    <t>Birds normally fly.</t>
-  </si>
-  <si>
-    <t>CNoun normally not Verb.</t>
-  </si>
-  <si>
-    <t>Animals normally do not fly.</t>
-  </si>
-  <si>
-    <t>CNoun normally are Adjective.</t>
-  </si>
-  <si>
-    <t>.* normally are(n't | n't | not | ).*\\.</t>
-  </si>
-  <si>
-    <t>Birds normally are beautifull.</t>
-  </si>
-  <si>
-    <t>CNoun normally are not Adjective.</t>
-  </si>
-  <si>
-    <t>Birds normally are not ugly.</t>
-  </si>
-  <si>
-    <t>CNoun normally are Adjective Preposition CNoun.</t>
-  </si>
-  <si>
-    <t>Students normally are afraid of math.</t>
-  </si>
-  <si>
-    <t>CNoun normally are not Adjective Preposition CNoun.</t>
-  </si>
-  <si>
-    <t>Students normally are not afraid of architecture.</t>
-  </si>
-  <si>
-    <t>Default Sentences</t>
-  </si>
-  <si>
-    <t>cNounNormallyAreAdjectivePrepositionCNoun</t>
-  </si>
-  <si>
-    <t>cNounNormallyAreAdjective</t>
-  </si>
-  <si>
-    <t>cNounNormallyVerb</t>
-  </si>
-  <si>
-    <t>fly(X) :- bird(X), not ab(d1, X), not -fly(X).</t>
-  </si>
-  <si>
-    <t>-fly(X) :- animal(X), not ab(d2, X), not fly(X).</t>
-  </si>
-  <si>
-    <t>beautifull(X) :- bird(X), not ab(d3, X), not -beautifull(X).</t>
-  </si>
-  <si>
-    <t>-ugly(X) :- bird(X), not ab(d4, X), not ugly(X).</t>
-  </si>
-  <si>
-    <t>afraid_of(X, math) :- student(X), not ab(d5, X), not -afraid_of(X, math).</t>
-  </si>
-  <si>
-    <t>-afraid_of(X, architecture) :- student(X), not ab(d6, X), not afraid_of(X, architecture).</t>
-  </si>
-  <si>
-    <t>pNounIsAbnormalWithRespectToDefaultRuleTag</t>
+      <t>.$</t>
+    </r>
+  </si>
+  <si>
+    <t>.* is abnormal with respect to .*\\.$</t>
+  </si>
+  <si>
+    <t>.* normally .*\\.$</t>
+  </si>
+  <si>
+    <t>.* normally are(n't | n't | not | ).*\\.$</t>
+  </si>
+  <si>
+    <t>allCNounAreCNoun</t>
+  </si>
+  <si>
+    <t>allCNounAreAdjective</t>
+  </si>
+  <si>
+    <t>noCNounAreCNoun</t>
+  </si>
+  <si>
+    <t>noCNounAreAdjective</t>
+  </si>
+  <si>
+    <t>someCNounAreCNoun</t>
+  </si>
+  <si>
+    <t>someCNounAreAdjective</t>
+  </si>
+  <si>
+    <t>all .* are .*\\.$</t>
+  </si>
+  <si>
+    <t>no .* are .*\\.$</t>
+  </si>
+  <si>
+    <t>Some CNoun are not CNoun.</t>
+  </si>
+  <si>
+    <t>Some CNoun are not Adjective.</t>
+  </si>
+  <si>
+    <t>All CNoun are not Adjective.</t>
+  </si>
+  <si>
+    <t>No CNoun are not Adjective.</t>
+  </si>
+  <si>
+    <t>all .* are(n't | n't | not | ).*\\.$</t>
+  </si>
+  <si>
+    <t>no .* are(n't | n't | not | ).*\\.$</t>
+  </si>
+  <si>
+    <t>some .* are(n't | n't | not | ).*\\.$</t>
+  </si>
+  <si>
+    <t>All politicians are humans.</t>
+  </si>
+  <si>
+    <t>:- not human(X), politician(X).</t>
+  </si>
+  <si>
+    <t>:- not crook(X), politician(X).</t>
+  </si>
+  <si>
+    <t>:- crook(X), politician(X).</t>
+  </si>
+  <si>
+    <t>All politicians are not crook.</t>
+  </si>
+  <si>
+    <t>No politicians are humans.</t>
+  </si>
+  <si>
+    <t>:- human(X), politicans(X).</t>
+  </si>
+  <si>
+    <t>No politicians are not crook.</t>
+  </si>
+  <si>
+    <t>no .* are.*\\.$</t>
+  </si>
+  <si>
+    <t>all .* are.*\\.$</t>
+  </si>
+  <si>
+    <t>Some politicians are not cruck.</t>
+  </si>
+  <si>
+    <t>Some politicians are human.</t>
+  </si>
+  <si>
+    <t>Some politicians are not human.</t>
+  </si>
+  <si>
+    <t>Some politicians are humans.</t>
+  </si>
+  <si>
+    <t>Some politicians are not humans.</t>
+  </si>
+  <si>
+    <t>:- human(X), politician(X).</t>
+  </si>
+  <si>
+    <t>:- #count{X : politician(X), human(X)} = 0.</t>
+  </si>
+  <si>
+    <t>:- #count{X : politician(X), not human(X)} = 0.</t>
+  </si>
+  <si>
+    <t>:- #count{X : politician(X), cruck(X)} = 0.</t>
+  </si>
+  <si>
+    <t>:- #count{X : politician(X), not cruck(X)} = 0.</t>
+  </si>
+  <si>
+    <t>ab(d1, roberta).</t>
+  </si>
+  <si>
+    <t>ab(d1, X).</t>
+  </si>
+  <si>
+    <t>ab(d1, roberta) :- ...</t>
+  </si>
+  <si>
+    <t>ab(d1, X) :- ...</t>
+  </si>
+  <si>
+    <t>... :- ab(d1, roberta).</t>
+  </si>
+  <si>
+    <t>... :- ab(d1, X).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1451,6 +1764,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1547,7 +1871,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="145">
+  <cellStyleXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1693,8 +2017,60 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1724,8 +2100,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="145">
+  <cellStyles count="197">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1798,6 +2175,32 @@
     <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1870,6 +2273,32 @@
     <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2145,20 +2574,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I83"/>
+  <dimension ref="A3:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A66" zoomScale="108" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A68" zoomScale="108" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="69.6640625" bestFit="1" customWidth="1"/>
@@ -2187,7 +2616,7 @@
         <v>35</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2339,25 +2768,25 @@
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>257</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2365,25 +2794,25 @@
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="G11" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>261</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2391,22 +2820,22 @@
         <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2414,22 +2843,22 @@
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2437,25 +2866,25 @@
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>257</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2463,25 +2892,25 @@
         <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2489,22 +2918,22 @@
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2512,22 +2941,22 @@
         <v>14</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -2679,25 +3108,25 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D24" t="s">
+        <v>173</v>
+      </c>
+      <c r="E24" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" t="s">
         <v>174</v>
       </c>
-      <c r="E24" t="s">
-        <v>172</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>175</v>
       </c>
-      <c r="G24" t="s">
-        <v>176</v>
-      </c>
       <c r="H24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -2705,25 +3134,25 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G25" t="s">
+        <v>176</v>
+      </c>
+      <c r="H25" t="s">
         <v>178</v>
-      </c>
-      <c r="G25" t="s">
-        <v>177</v>
-      </c>
-      <c r="H25" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -2731,25 +3160,25 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G26" t="s">
         <v>183</v>
       </c>
-      <c r="G26" t="s">
-        <v>184</v>
-      </c>
       <c r="H26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -2757,25 +3186,25 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -2783,22 +3212,22 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -2806,22 +3235,22 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -2829,22 +3258,22 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D30" t="s">
+        <v>192</v>
+      </c>
+      <c r="E30" t="s">
+        <v>190</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H30" t="s">
         <v>193</v>
-      </c>
-      <c r="E30" t="s">
-        <v>191</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="H30" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -2852,22 +3281,22 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -2875,22 +3304,22 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -2898,22 +3327,22 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -2921,22 +3350,22 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D34" t="s">
+        <v>230</v>
+      </c>
+      <c r="E34" t="s">
         <v>218</v>
       </c>
-      <c r="D34" t="s">
-        <v>231</v>
-      </c>
-      <c r="E34" t="s">
-        <v>219</v>
-      </c>
       <c r="G34" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -2944,22 +3373,22 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="D35" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -2967,22 +3396,22 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D36" t="s">
+        <v>295</v>
+      </c>
+      <c r="E36" t="s">
         <v>232</v>
       </c>
-      <c r="D36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E36" t="s">
-        <v>233</v>
-      </c>
       <c r="G36" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -2990,22 +3419,22 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -3013,22 +3442,22 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D38" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -3036,22 +3465,22 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D39" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E39" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -3243,22 +3672,22 @@
         <v>45</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3266,22 +3695,22 @@
         <v>46</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3289,22 +3718,22 @@
         <v>47</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3312,22 +3741,22 @@
         <v>48</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E51" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="H51" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -3617,22 +4046,22 @@
         <v>61</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D64" t="s">
         <v>162</v>
       </c>
-      <c r="D64" t="s">
-        <v>163</v>
-      </c>
       <c r="E64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G64" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -3640,22 +4069,22 @@
         <v>62</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D65" t="s">
         <v>162</v>
       </c>
-      <c r="D65" t="s">
-        <v>163</v>
-      </c>
       <c r="E65" t="s">
+        <v>167</v>
+      </c>
+      <c r="G65" t="s">
         <v>168</v>
       </c>
-      <c r="G65" t="s">
-        <v>169</v>
-      </c>
       <c r="H65" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -3663,22 +4092,22 @@
         <v>63</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>306</v>
+        <v>374</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E66" t="s">
         <v>297</v>
       </c>
-      <c r="E66" t="s">
+      <c r="G66" t="s">
+        <v>303</v>
+      </c>
+      <c r="H66" t="s">
         <v>298</v>
-      </c>
-      <c r="G66" t="s">
-        <v>304</v>
-      </c>
-      <c r="H66" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -3686,22 +4115,22 @@
         <v>64</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>306</v>
+        <v>374</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E67" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G67" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H67" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -3709,22 +4138,22 @@
         <v>65</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D68" t="s">
+        <v>307</v>
+      </c>
+      <c r="E68" t="s">
         <v>308</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="G68" t="s">
+        <v>312</v>
+      </c>
+      <c r="H68" t="s">
         <v>310</v>
-      </c>
-      <c r="E68" t="s">
-        <v>311</v>
-      </c>
-      <c r="G68" t="s">
-        <v>315</v>
-      </c>
-      <c r="H68" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -3732,22 +4161,22 @@
         <v>66</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D69" t="s">
         <v>307</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="E69" t="s">
         <v>309</v>
       </c>
-      <c r="D69" t="s">
-        <v>310</v>
-      </c>
-      <c r="E69" t="s">
-        <v>312</v>
-      </c>
       <c r="G69" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H69" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -3755,25 +4184,25 @@
         <v>67</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D70" t="s">
+        <v>316</v>
+      </c>
+      <c r="E70" t="s">
         <v>317</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="F70" t="s">
+        <v>321</v>
+      </c>
+      <c r="G70" t="s">
+        <v>323</v>
+      </c>
+      <c r="H70" t="s">
         <v>319</v>
-      </c>
-      <c r="D70" t="s">
-        <v>320</v>
-      </c>
-      <c r="E70" t="s">
-        <v>321</v>
-      </c>
-      <c r="F70" t="s">
-        <v>325</v>
-      </c>
-      <c r="G70" t="s">
-        <v>327</v>
-      </c>
-      <c r="H70" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -3781,56 +4210,71 @@
         <v>68</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D71" t="s">
+        <v>316</v>
+      </c>
+      <c r="E71" t="s">
         <v>318</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="F71" t="s">
+        <v>322</v>
+      </c>
+      <c r="G71" t="s">
+        <v>324</v>
+      </c>
+      <c r="H71" t="s">
         <v>320</v>
-      </c>
-      <c r="E71" t="s">
-        <v>322</v>
-      </c>
-      <c r="F71" t="s">
-        <v>326</v>
-      </c>
-      <c r="G71" t="s">
-        <v>328</v>
-      </c>
-      <c r="H71" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>332</v>
+        <v>377</v>
       </c>
       <c r="D74" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="E74" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F74" t="s">
-        <v>334</v>
+        <v>415</v>
+      </c>
+      <c r="G74" t="s">
+        <v>419</v>
+      </c>
+      <c r="H74" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>332</v>
+        <v>377</v>
       </c>
       <c r="D75" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="E75" t="s">
-        <v>336</v>
+        <v>330</v>
+      </c>
+      <c r="F75" t="s">
+        <v>416</v>
+      </c>
+      <c r="G75" t="s">
+        <v>420</v>
+      </c>
+      <c r="H75" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -3841,104 +4285,240 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="D78" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E78" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I78" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="D79" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E79" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="I79" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="D80" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="E80" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="I80" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
+        <v>337</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D81" t="s">
         <v>345</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D81" t="s">
-        <v>353</v>
-      </c>
       <c r="E81" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="I81" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="D82" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E82" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="I82" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="D83" t="s">
+        <v>344</v>
+      </c>
+      <c r="E83" t="s">
+        <v>342</v>
+      </c>
+      <c r="I83" t="s">
         <v>352</v>
       </c>
-      <c r="E83" t="s">
-        <v>350</v>
-      </c>
-      <c r="I83" t="s">
-        <v>360</v>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>367</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D85" t="s">
+        <v>380</v>
+      </c>
+      <c r="E85" t="s">
+        <v>395</v>
+      </c>
+      <c r="F85" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>368</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D86" t="s">
+        <v>381</v>
+      </c>
+      <c r="E86" t="s">
+        <v>362</v>
+      </c>
+      <c r="F86" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>369</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D87" t="s">
+        <v>382</v>
+      </c>
+      <c r="E87" t="s">
+        <v>400</v>
+      </c>
+      <c r="F87" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>370</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D88" t="s">
+        <v>383</v>
+      </c>
+      <c r="E88" t="s">
+        <v>363</v>
+      </c>
+      <c r="F88" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>371</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D89" t="s">
+        <v>384</v>
+      </c>
+      <c r="E89" t="s">
+        <v>408</v>
+      </c>
+      <c r="F89" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>388</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D90" t="s">
+        <v>384</v>
+      </c>
+      <c r="E90" t="s">
+        <v>409</v>
+      </c>
+      <c r="F90" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>372</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D91" t="s">
+        <v>385</v>
+      </c>
+      <c r="E91" t="s">
+        <v>364</v>
+      </c>
+      <c r="F91" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>389</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D92" t="s">
+        <v>385</v>
+      </c>
+      <c r="E92" t="s">
+        <v>405</v>
+      </c>
+      <c r="F92" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -3948,6 +4528,273 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B7:F41"/>
+  <sheetViews>
+    <sheetView showRuler="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38:E41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B7" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="C7" t="s">
+        <v>358</v>
+      </c>
+      <c r="D7" t="s">
+        <v>359</v>
+      </c>
+      <c r="E7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B8" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="C8" t="s">
+        <v>360</v>
+      </c>
+      <c r="D8" t="s">
+        <v>361</v>
+      </c>
+      <c r="E8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B9" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="D9" t="s">
+        <v>365</v>
+      </c>
+      <c r="E9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B10" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="D10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>367</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D32" t="s">
+        <v>380</v>
+      </c>
+      <c r="E32" t="s">
+        <v>395</v>
+      </c>
+      <c r="F32" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>368</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D33" t="s">
+        <v>381</v>
+      </c>
+      <c r="E33" t="s">
+        <v>362</v>
+      </c>
+      <c r="F33" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>390</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E34" t="s">
+        <v>399</v>
+      </c>
+      <c r="F34" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>369</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D35" t="s">
+        <v>382</v>
+      </c>
+      <c r="E35" t="s">
+        <v>400</v>
+      </c>
+      <c r="F35" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>370</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D36" t="s">
+        <v>383</v>
+      </c>
+      <c r="E36" t="s">
+        <v>363</v>
+      </c>
+      <c r="F36" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>391</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D37" t="s">
+        <v>383</v>
+      </c>
+      <c r="E37" t="s">
+        <v>402</v>
+      </c>
+      <c r="F37" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>371</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D38" t="s">
+        <v>384</v>
+      </c>
+      <c r="E38" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>388</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D39" t="s">
+        <v>384</v>
+      </c>
+      <c r="E39" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>372</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D40" t="s">
+        <v>385</v>
+      </c>
+      <c r="E40" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>389</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D41" t="s">
+        <v>385</v>
+      </c>
+      <c r="E41" t="s">
+        <v>405</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
@@ -3964,7 +4811,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>0</v>
@@ -4053,10 +4900,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D8" s="6"/>
       <c r="F8" s="6"/>
@@ -4068,10 +4915,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>259</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>260</v>
       </c>
       <c r="D9" s="6"/>
       <c r="F9" s="6"/>
@@ -4083,10 +4930,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D10" s="6"/>
       <c r="F10" s="6"/>
@@ -4098,10 +4945,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D11" s="6"/>
       <c r="F11" s="6"/>
@@ -4113,10 +4960,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D12" s="6"/>
       <c r="F12" s="6"/>
@@ -4128,10 +4975,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D13" s="6"/>
       <c r="F13" s="6"/>
@@ -4143,10 +4990,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D14" s="7"/>
       <c r="F14" s="6"/>
@@ -4158,10 +5005,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D15" s="7"/>
       <c r="F15" s="6"/>
@@ -4239,10 +5086,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4250,10 +5097,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4261,10 +5108,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4272,10 +5119,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4283,10 +5130,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4294,10 +5141,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4305,10 +5152,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -4317,10 +5164,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -4330,10 +5177,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -4343,10 +5190,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -4356,10 +5203,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -4369,10 +5216,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
@@ -4382,10 +5229,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
@@ -4395,10 +5242,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -4408,10 +5255,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
@@ -4421,10 +5268,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
@@ -4522,10 +5369,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D46" s="6"/>
       <c r="F46" s="6"/>
@@ -4537,10 +5384,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D47" s="6"/>
       <c r="F47" s="6"/>
@@ -4552,10 +5399,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D48" s="6"/>
       <c r="F48" s="6"/>
@@ -4567,10 +5414,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D49" s="6"/>
       <c r="F49" s="6"/>
@@ -4715,10 +5562,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4726,10 +5573,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H63" s="5"/>
     </row>
@@ -4738,10 +5585,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D64" s="2"/>
     </row>
@@ -4750,10 +5597,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D65" s="2"/>
     </row>
@@ -4762,10 +5609,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="C66" s="16" t="s">
         <v>308</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4773,10 +5620,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4784,10 +5631,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C68" s="16" t="s">
         <v>317</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4795,15 +5642,15 @@
         <v>68</v>
       </c>
       <c r="B69" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="C69" s="16" t="s">
         <v>318</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/sentences.xlsx
+++ b/sentences.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="433">
   <si>
     <t>Structure</t>
   </si>
@@ -1208,9 +1208,6 @@
   </si>
   <si>
     <t>Nr.</t>
-  </si>
-  <si>
-    <t>asdfasldkfjöalksdfjölajksd</t>
   </si>
   <si>
     <t>PNoun is abnormal with respect to DefaultRuleTag.</t>
@@ -1709,12 +1706,51 @@
   <si>
     <t>... :- ab(d1, X).</t>
   </si>
+  <si>
+    <t>A and B are C.</t>
+  </si>
+  <si>
+    <t>cats and dogs are animals.</t>
+  </si>
+  <si>
+    <t>if X is a cat then X is a animal.</t>
+  </si>
+  <si>
+    <t>if X is a dog then X is a animal.</t>
+  </si>
+  <si>
+    <t>if X is a A then X is a C.</t>
+  </si>
+  <si>
+    <t>if X is a B then X is a C.</t>
+  </si>
+  <si>
+    <t>TranslationPattern</t>
+  </si>
+  <si>
+    <t>RegexPattern</t>
+  </si>
+  <si>
+    <t>Translation.</t>
+  </si>
+  <si>
+    <t>NLSentence.</t>
+  </si>
+  <si>
+    <t>.* and .* are .*.</t>
+  </si>
+  <si>
+    <t>Simple Sentences</t>
+  </si>
+  <si>
+    <t>Categorical Proposition Sentences</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1776,6 +1812,13 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1785,7 +1828,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1870,8 +1913,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="197">
+  <cellStyleXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2069,8 +2121,44 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2101,8 +2189,17 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="197">
+  <cellStyles count="233">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2201,6 +2298,24 @@
     <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2299,6 +2414,24 @@
     <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2576,8 +2709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A68" zoomScale="108" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView showRuler="0" topLeftCell="A63" zoomScale="108" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85:E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2616,7 +2749,7 @@
         <v>35</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -4049,7 +4182,7 @@
         <v>163</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D64" t="s">
         <v>162</v>
@@ -4072,7 +4205,7 @@
         <v>164</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D65" t="s">
         <v>162</v>
@@ -4095,7 +4228,7 @@
         <v>301</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>296</v>
@@ -4118,7 +4251,7 @@
         <v>300</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>296</v>
@@ -4141,7 +4274,7 @@
         <v>306</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D68" t="s">
         <v>307</v>
@@ -4164,7 +4297,7 @@
         <v>305</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D69" t="s">
         <v>307</v>
@@ -4187,7 +4320,7 @@
         <v>314</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D70" t="s">
         <v>316</v>
@@ -4213,7 +4346,7 @@
         <v>315</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D71" t="s">
         <v>316</v>
@@ -4233,48 +4366,48 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
+        <v>326</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D74" t="s">
+        <v>352</v>
+      </c>
+      <c r="E74" t="s">
         <v>327</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D74" t="s">
-        <v>353</v>
-      </c>
-      <c r="E74" t="s">
-        <v>328</v>
-      </c>
       <c r="F74" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G74" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H74" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
+        <v>328</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D75" t="s">
+        <v>352</v>
+      </c>
+      <c r="E75" t="s">
         <v>329</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D75" t="s">
-        <v>353</v>
-      </c>
-      <c r="E75" t="s">
-        <v>330</v>
-      </c>
       <c r="F75" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G75" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H75" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -4285,240 +4418,240 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
+        <v>330</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D78" t="s">
+        <v>345</v>
+      </c>
+      <c r="E78" t="s">
         <v>331</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="I78" t="s">
         <v>346</v>
-      </c>
-      <c r="E78" t="s">
-        <v>332</v>
-      </c>
-      <c r="I78" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
+        <v>332</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D79" t="s">
+        <v>345</v>
+      </c>
+      <c r="E79" t="s">
         <v>333</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D79" t="s">
-        <v>346</v>
-      </c>
-      <c r="E79" t="s">
-        <v>334</v>
-      </c>
       <c r="I79" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
+        <v>334</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D80" t="s">
+        <v>344</v>
+      </c>
+      <c r="E80" t="s">
         <v>335</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D80" t="s">
-        <v>345</v>
-      </c>
-      <c r="E80" t="s">
-        <v>336</v>
-      </c>
       <c r="I80" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
+        <v>336</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D81" t="s">
+        <v>344</v>
+      </c>
+      <c r="E81" t="s">
         <v>337</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D81" t="s">
-        <v>345</v>
-      </c>
-      <c r="E81" t="s">
-        <v>338</v>
-      </c>
       <c r="I81" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
+        <v>338</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D82" t="s">
+        <v>343</v>
+      </c>
+      <c r="E82" t="s">
         <v>339</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D82" t="s">
-        <v>344</v>
-      </c>
-      <c r="E82" t="s">
-        <v>340</v>
-      </c>
       <c r="I82" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
+        <v>340</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D83" t="s">
+        <v>343</v>
+      </c>
+      <c r="E83" t="s">
         <v>341</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D83" t="s">
-        <v>344</v>
-      </c>
-      <c r="E83" t="s">
-        <v>342</v>
-      </c>
       <c r="I83" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D85" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E85" t="s">
+        <v>394</v>
+      </c>
+      <c r="F85" t="s">
         <v>395</v>
-      </c>
-      <c r="F85" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D86" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E86" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F86" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D87" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E87" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F87" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D88" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E88" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F88" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D89" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E89" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F89" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D90" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E90" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F90" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D91" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E91" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F91" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D92" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E92" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F92" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -4529,10 +4662,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B7:F41"/>
+  <dimension ref="B7:F56"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38:E41"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4545,247 +4678,303 @@
   <sheetData>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D7" t="s">
         <v>358</v>
       </c>
-      <c r="D7" t="s">
-        <v>359</v>
-      </c>
       <c r="E7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B8" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D8" t="s">
         <v>360</v>
       </c>
-      <c r="D8" t="s">
-        <v>361</v>
-      </c>
       <c r="E8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B9" s="19" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B10" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E32" t="s">
+        <v>394</v>
+      </c>
+      <c r="F32" t="s">
         <v>395</v>
-      </c>
-      <c r="F32" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E33" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F33" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D34" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E34" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E35" t="s">
+        <v>399</v>
+      </c>
+      <c r="F35" t="s">
         <v>400</v>
-      </c>
-      <c r="F35" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D36" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F36" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D37" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E37" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F37" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D38" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E38" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D39" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E39" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D40" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E40" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D41" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E41" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>420</v>
+      </c>
+      <c r="C47" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>424</v>
+      </c>
+      <c r="C48" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>425</v>
+      </c>
+      <c r="C49" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>426</v>
+      </c>
+      <c r="C53" t="s">
+        <v>429</v>
+      </c>
+      <c r="D53" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>427</v>
+      </c>
+      <c r="D54" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>428</v>
+      </c>
+      <c r="D55" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -4796,174 +4985,156 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="2" max="2" width="55.33203125" customWidth="1"/>
-    <col min="3" max="3" width="40.33203125" customWidth="1"/>
+    <col min="3" max="3" width="54.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="D3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
-        <v>3</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="9"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>258</v>
+        <v>46</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="9"/>
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D12" s="6"/>
       <c r="F12" s="6"/>
@@ -4972,13 +5143,13 @@
     </row>
     <row r="13" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D13" s="6"/>
       <c r="F13" s="6"/>
@@ -4987,422 +5158,422 @@
     </row>
     <row r="14" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>254</v>
+      </c>
+      <c r="D14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>269</v>
+      </c>
+      <c r="D15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>11</v>
+        <v>245</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>14</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>16</v>
+        <v>272</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>18</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
+        <v>16</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
+        <v>19</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>203</v>
+        <v>26</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="G28" s="5"/>
+        <v>188</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
+        <v>189</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>136</v>
+        <v>211</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>138</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>137</v>
+        <v>212</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>139</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>279</v>
+        <v>118</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="D46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
+        <v>120</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>282</v>
+        <v>117</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
+        <v>121</v>
+      </c>
     </row>
     <row r="48" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D48" s="6"/>
       <c r="F48" s="6"/>
@@ -5411,13 +5582,13 @@
     </row>
     <row r="49" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D49" s="6"/>
       <c r="F49" s="6"/>
@@ -5426,234 +5597,486 @@
     </row>
     <row r="50" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>90</v>
+        <v>280</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>87</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>95</v>
+        <v>281</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>92</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
     </row>
     <row r="52" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="G60" s="5"/>
+        <v>149</v>
+      </c>
     </row>
     <row r="61" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="15">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>166</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G62" s="5"/>
     </row>
     <row r="63" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="H63" s="5"/>
+        <v>161</v>
+      </c>
     </row>
     <row r="64" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="15">
+        <v>61</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="15">
+        <v>62</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="15">
         <v>63</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B66" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C66" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="15">
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="15">
         <v>64</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B67" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C67" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="15">
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="15">
         <v>65</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B68" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C68" s="16" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="15">
+    <row r="69" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="15">
         <v>66</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B69" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C69" s="16" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="15">
+    <row r="70" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="15">
         <v>67</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B70" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C70" s="16" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="15">
+    <row r="71" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="15">
         <v>68</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B71" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C71" s="16" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
+    <row r="72" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="15">
+        <v>68</v>
+      </c>
+      <c r="B72" s="16" t="s">
         <v>326</v>
       </c>
+      <c r="C72" s="16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="15">
+        <v>68</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="20"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
+    </row>
+    <row r="76" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="15">
+        <v>69</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="15">
+        <v>70</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="15">
+        <v>71</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="15">
+        <v>72</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="15">
+        <v>73</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="15">
+        <v>74</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="20"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
+    </row>
+    <row r="85" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="15">
+        <v>75</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="15">
+        <v>76</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="15">
+        <v>77</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="15">
+        <v>78</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="15">
+        <v>79</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="15">
+        <v>80</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="15">
+        <v>81</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="15">
+        <v>82</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>404</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A74:C75"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A83:C84"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/sentences.xlsx
+++ b/sentences.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="448">
   <si>
     <t>Structure</t>
   </si>
@@ -1744,6 +1744,51 @@
   </si>
   <si>
     <t>Categorical Proposition Sentences</t>
+  </si>
+  <si>
+    <t>A CNoun Variable is a CNoun of a Cnoun Variable.</t>
+  </si>
+  <si>
+    <t>A CNoun Variable is not a CNoun of a CNoun Variable.</t>
+  </si>
+  <si>
+    <t>[A] CNoun Variable is [the] CNoun of [a] PNoun.</t>
+  </si>
+  <si>
+    <t>[A] CNoun Variable is not [the] CNoun of [a] PNoun.</t>
+  </si>
+  <si>
+    <t>There is a CNoun Variable.</t>
+  </si>
+  <si>
+    <t>There is not a CNoun Variable.</t>
+  </si>
+  <si>
+    <t>[A] CNoun Variable Verb a CNoun as [a] Pnoun.</t>
+  </si>
+  <si>
+    <t>[A] CNoun Variable not Verb a CNoun as [a] Pnoun.</t>
+  </si>
+  <si>
+    <t>[A] CNoun Variable Verb [a] CNoun Variable.</t>
+  </si>
+  <si>
+    <t>[A] CNoun Variable not Verb [a] CNoun Variable.</t>
+  </si>
+  <si>
+    <t>[A] CNoun Variable Verb Preposition [a] CNoun Variable.</t>
+  </si>
+  <si>
+    <t>[A] CNoun Variable not Verb Preposition [a] CNoun Variable.</t>
+  </si>
+  <si>
+    <t>[A] PNoun Verb a CNoun as [a] Pnoun.</t>
+  </si>
+  <si>
+    <t>[A] Pnoun not Verb a CNoun as [a] Pnoun.</t>
+  </si>
+  <si>
+    <t>PNoun not Verb.</t>
   </si>
 </sst>
 </file>
@@ -2189,10 +2234,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2709,8 +2754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I92"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A63" zoomScale="108" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85:E92"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="108" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2927,7 +2972,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>258</v>
+        <v>447</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>275</v>
@@ -3621,7 +3666,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>136</v>
+        <v>445</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>140</v>
@@ -3644,7 +3689,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>137</v>
+        <v>446</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>140</v>
@@ -3667,7 +3712,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>439</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>68</v>
@@ -3690,7 +3735,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>440</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>68</v>
@@ -3713,7 +3758,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>119</v>
+        <v>441</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>77</v>
@@ -3736,7 +3781,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>83</v>
+        <v>442</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>77</v>
@@ -3759,7 +3804,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>443</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>77</v>
@@ -3782,7 +3827,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>444</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>77</v>
@@ -4093,7 +4138,7 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>147</v>
+        <v>437</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>145</v>
@@ -4116,7 +4161,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>148</v>
+        <v>438</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>145</v>
@@ -4179,7 +4224,7 @@
         <v>61</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>163</v>
+        <v>433</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>372</v>
@@ -4202,7 +4247,7 @@
         <v>62</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>164</v>
+        <v>434</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>372</v>
@@ -4271,7 +4316,7 @@
         <v>65</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>306</v>
+        <v>435</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>374</v>
@@ -4294,7 +4339,7 @@
         <v>66</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>305</v>
+        <v>436</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>374</v>
@@ -4985,10 +5030,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C71" sqref="C4:C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5006,9 +5051,9 @@
       <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
     </row>
     <row r="3" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
@@ -5857,225 +5902,214 @@
         <v>326</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="15">
-        <v>68</v>
-      </c>
-      <c r="B73" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>328</v>
-      </c>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="21" t="s">
-        <v>342</v>
-      </c>
+      <c r="A74" s="21"/>
       <c r="B74" s="21"/>
       <c r="C74" s="21"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="20"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="20"/>
-    </row>
-    <row r="76" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="17" t="s">
+    <row r="75" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B75" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C75" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="15">
+        <v>69</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="15">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="15">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="15">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="15">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="15">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="15">
-        <v>74</v>
-      </c>
-      <c r="B82" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="C82" s="16" t="s">
         <v>341</v>
       </c>
     </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+    </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="21" t="s">
-        <v>432</v>
-      </c>
+      <c r="A83" s="21"/>
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="20"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="20"/>
-    </row>
-    <row r="85" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="17" t="s">
+    <row r="84" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="B85" s="18" t="s">
+      <c r="B84" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C84" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="15">
+        <v>75</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="15">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>394</v>
+        <v>361</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="15">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="15">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="15">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="15">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="15">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>408</v>
+        <v>363</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="15">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="15">
-        <v>82</v>
-      </c>
-      <c r="B93" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="C93" s="16" t="s">
         <v>404</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A74:C75"/>
+    <mergeCell ref="A73:C74"/>
     <mergeCell ref="A1:C2"/>
-    <mergeCell ref="A83:C84"/>
+    <mergeCell ref="A82:C83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/sentences.xlsx
+++ b/sentences.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1873,7 +1873,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1890,85 +1890,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="233">
+  <cellStyleXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2202,8 +2125,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2221,30 +2148,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="233">
+  <cellStyles count="237">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2361,6 +2276,8 @@
     <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2477,6 +2394,8 @@
     <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2754,8 +2673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="108" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showRuler="0" topLeftCell="A67" zoomScale="108" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4722,7 +4641,7 @@
   </cols>
   <sheetData>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="13" t="s">
         <v>353</v>
       </c>
       <c r="C7" t="s">
@@ -4736,7 +4655,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="13" t="s">
         <v>354</v>
       </c>
       <c r="C8" t="s">
@@ -4750,7 +4669,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="13" t="s">
         <v>355</v>
       </c>
       <c r="D9" t="s">
@@ -4761,7 +4680,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="13" t="s">
         <v>356</v>
       </c>
       <c r="D10" t="s">
@@ -5032,8 +4951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C71" sqref="C4:C71"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection sqref="A1:C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5044,25 +4963,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-    </row>
-    <row r="3" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="10"/>
@@ -5070,14 +4989,14 @@
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="16">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="12"/>
@@ -5086,69 +5005,69 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="16">
         <v>2</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="16">
         <v>3</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="16">
         <v>4</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="16">
         <v>5</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
         <v>6</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
         <v>7</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D10" s="6"/>
@@ -5156,14 +5075,14 @@
       <c r="G10" s="6"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
         <v>8</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="12" t="s">
         <v>259</v>
       </c>
       <c r="D11" s="6"/>
@@ -5171,14 +5090,14 @@
       <c r="G11" s="6"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="16">
         <v>9</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="12" t="s">
         <v>253</v>
       </c>
       <c r="D12" s="6"/>
@@ -5186,14 +5105,14 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="16">
         <v>10</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="12" t="s">
         <v>268</v>
       </c>
       <c r="D13" s="6"/>
@@ -5201,14 +5120,14 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="16">
         <v>11</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="12" t="s">
         <v>254</v>
       </c>
       <c r="D14" s="6"/>
@@ -5216,14 +5135,14 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="16">
         <v>12</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="12" t="s">
         <v>269</v>
       </c>
       <c r="D15" s="6"/>
@@ -5231,14 +5150,14 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="16">
         <v>13</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="12" t="s">
         <v>255</v>
       </c>
       <c r="D16" s="7"/>
@@ -5246,14 +5165,14 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="16">
         <v>14</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="12" t="s">
         <v>276</v>
       </c>
       <c r="D17" s="7"/>
@@ -5261,363 +5180,363 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
         <v>15</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="16">
         <v>16</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="16">
         <v>17</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="16">
         <v>18</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="16">
         <v>19</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="16">
         <v>20</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="16">
         <v>21</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="12" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="16">
         <v>22</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="12" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="16">
         <v>23</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="12" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="16">
         <v>24</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="16">
         <v>25</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="12" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="16">
         <v>26</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="12" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="16">
         <v>27</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="12" t="s">
         <v>190</v>
       </c>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="16">
         <v>28</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="12" t="s">
         <v>191</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="16">
         <v>29</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="12" t="s">
         <v>220</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="16">
         <v>30</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="12" t="s">
         <v>221</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="16">
         <v>31</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="12" t="s">
         <v>218</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="16">
         <v>32</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="12" t="s">
         <v>219</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="16">
         <v>33</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="12" t="s">
         <v>232</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="16">
         <v>34</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="12" t="s">
         <v>233</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="16">
         <v>35</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="12" t="s">
         <v>234</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="16">
         <v>36</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="12" t="s">
         <v>235</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="16">
         <v>37</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="16">
         <v>38</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="16">
         <v>39</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="16">
         <v>40</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="15">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="16">
         <v>41</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="15">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="16">
         <v>42</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="15">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="16">
         <v>43</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="12" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="15">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="16">
         <v>44</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="12" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="15">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="16">
         <v>45</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="12" t="s">
         <v>283</v>
       </c>
       <c r="D48" s="6"/>
@@ -5625,14 +5544,14 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="15">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="16">
         <v>46</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="12" t="s">
         <v>284</v>
       </c>
       <c r="D49" s="6"/>
@@ -5640,14 +5559,14 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="15">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="16">
         <v>47</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="12" t="s">
         <v>285</v>
       </c>
       <c r="D50" s="6"/>
@@ -5655,14 +5574,14 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="15">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="16">
         <v>48</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="12" t="s">
         <v>286</v>
       </c>
       <c r="D51" s="6"/>
@@ -5670,438 +5589,438 @@
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="15">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="16">
         <v>49</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="15">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="16">
         <v>50</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="15">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="16">
         <v>51</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="15">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="16">
         <v>52</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="12" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="15">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="16">
         <v>53</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C56" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="15">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="16">
         <v>54</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="15">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="16">
         <v>55</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="15">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="16">
         <v>56</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C59" s="12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="15">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="16">
         <v>57</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="15">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="16">
         <v>58</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="12" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="15">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="16">
         <v>59</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="12" t="s">
         <v>159</v>
       </c>
       <c r="G62" s="5"/>
     </row>
-    <row r="63" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="15">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="16">
         <v>60</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="12" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="15">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="16">
         <v>61</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="12" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="15">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="16">
         <v>62</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C65" s="12" t="s">
         <v>167</v>
       </c>
       <c r="H65" s="5"/>
     </row>
-    <row r="66" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="15">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="16">
         <v>63</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="12" t="s">
         <v>297</v>
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="15">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="16">
         <v>64</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="12" t="s">
         <v>299</v>
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="15">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="16">
         <v>65</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C68" s="12" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="15">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="16">
         <v>66</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C69" s="12" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="15">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="16">
         <v>67</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C70" s="12" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="15">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="16">
         <v>68</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B71" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C71" s="12" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="15">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="16">
         <v>68</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C72" s="12" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="20" t="s">
+      <c r="A73" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="21"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="21"/>
-    </row>
-    <row r="75" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="17" t="s">
+      <c r="A74" s="14"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="B75" s="18" t="s">
+      <c r="B75" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C75" s="18" t="s">
+      <c r="C75" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="15">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="16">
         <v>69</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C76" s="12" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="15">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="16">
         <v>70</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C77" s="12" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="15">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="16">
         <v>71</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C78" s="12" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="15">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="16">
         <v>72</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C79" s="12" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="15">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="16">
         <v>73</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="C80" s="16" t="s">
+      <c r="C80" s="12" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="15">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="16">
         <v>74</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="B81" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C81" s="12" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="20" t="s">
+      <c r="A82" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="B82" s="20"/>
-      <c r="C82" s="20"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="21"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21"/>
-    </row>
-    <row r="84" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="17" t="s">
+      <c r="A83" s="14"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="B84" s="18" t="s">
+      <c r="B84" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="C84" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="15">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="16">
         <v>75</v>
       </c>
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C85" s="12" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="15">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="16">
         <v>76</v>
       </c>
-      <c r="B86" s="16" t="s">
+      <c r="B86" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="C86" s="16" t="s">
+      <c r="C86" s="12" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="15">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="16">
         <v>77</v>
       </c>
-      <c r="B87" s="16" t="s">
+      <c r="B87" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="C87" s="12" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="15">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="16">
         <v>78</v>
       </c>
-      <c r="B88" s="16" t="s">
+      <c r="B88" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="C88" s="12" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="15">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="16">
         <v>79</v>
       </c>
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="C89" s="16" t="s">
+      <c r="C89" s="12" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="15">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="16">
         <v>80</v>
       </c>
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="C90" s="16" t="s">
+      <c r="C90" s="12" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="15">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="16">
         <v>81</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B91" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="C91" s="16" t="s">
+      <c r="C91" s="12" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="15">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="16">
         <v>82</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="B92" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="C92" s="16" t="s">
+      <c r="C92" s="12" t="s">
         <v>404</v>
       </c>
     </row>

--- a/sentences.xlsx
+++ b/sentences.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Dev" sheetId="1" r:id="rId1"/>
+    <sheet name="Web" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="10000"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="485">
   <si>
     <t>Structure</t>
   </si>
@@ -1674,21 +1674,6 @@
     <t>Some politicians are not humans.</t>
   </si>
   <si>
-    <t>:- human(X), politician(X).</t>
-  </si>
-  <si>
-    <t>:- #count{X : politician(X), human(X)} = 0.</t>
-  </si>
-  <si>
-    <t>:- #count{X : politician(X), not human(X)} = 0.</t>
-  </si>
-  <si>
-    <t>:- #count{X : politician(X), cruck(X)} = 0.</t>
-  </si>
-  <si>
-    <t>:- #count{X : politician(X), not cruck(X)} = 0.</t>
-  </si>
-  <si>
     <t>ab(d1, roberta).</t>
   </si>
   <si>
@@ -1789,6 +1774,194 @@
   </si>
   <si>
     <t>PNoun not Verb.</t>
+  </si>
+  <si>
+    <t>Abnormal Sentences (removed form program)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Categorical Proposition Sentences  
+  </t>
+  </si>
+  <si>
+    <t>Complex Sentences</t>
+  </si>
+  <si>
+    <t>If SimpleSentence {and SimpleSentence} that SimpleSentence.</t>
+  </si>
+  <si>
+    <r>
+      <t>if .* then .*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>\\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.$</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>exclude that .*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>\\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.$</t>
+    </r>
+  </si>
+  <si>
+    <t>Exclude that SimpleSentence {and that SimpleSentence}.</t>
+  </si>
+  <si>
+    <t>excludeThat</t>
+  </si>
+  <si>
+    <t>ifThen</t>
+  </si>
+  <si>
+    <t>Bob is the father of Roberta.</t>
+  </si>
+  <si>
+    <t>Bob is not the father of Roberta.</t>
+  </si>
+  <si>
+    <t>Roberta does not work for Bob.</t>
+  </si>
+  <si>
+    <t>Roberta doesn't love Bob.</t>
+  </si>
+  <si>
+    <t>Roberta works for Bob.</t>
+  </si>
+  <si>
+    <t>Roberta loves Bob.</t>
+  </si>
+  <si>
+    <t>Person X is the father of Bob.</t>
+  </si>
+  <si>
+    <t>Person X is not the father of Bob.</t>
+  </si>
+  <si>
+    <t>Roberta is not married to Bob.</t>
+  </si>
+  <si>
+    <t>Roberta is married to Bob.</t>
+  </si>
+  <si>
+    <t>If X is a human then X is mortal.</t>
+  </si>
+  <si>
+    <t>Exclude that Robert is a dog.</t>
+  </si>
+  <si>
+    <r>
+      <t>.* or .*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>\\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.$</t>
+    </r>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>Fact {or Fact}.</t>
+  </si>
+  <si>
+    <t>Roberta is a person or Roberta is a dog.</t>
+  </si>
+  <si>
+    <t>person(roberta) v dog(roberta).</t>
+  </si>
+  <si>
+    <t>person(roberta) v dog(roberta) :- ...</t>
+  </si>
+  <si>
+    <t>mortal(X) :- human(X).</t>
+  </si>
+  <si>
+    <t>:- dog(robert).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complex Sentences
+</t>
+  </si>
+  <si>
+    <t>Some politicians are corrupt.</t>
+  </si>
+  <si>
+    <t>Some politicians are not corrupt.</t>
+  </si>
+  <si>
+    <t>No politicians are corrupt.</t>
+  </si>
+  <si>
+    <t>All politicians are corrupt.</t>
+  </si>
+  <si>
+    <t>human(X) :- politician(X).</t>
+  </si>
+  <si>
+    <t>corrupt(X) :- politician(X).</t>
+  </si>
+  <si>
+    <t>- human(X) :- politician(X).</t>
+  </si>
+  <si>
+    <t>- corrupt(X) :- politician(X).</t>
+  </si>
+  <si>
+    <t>:- #count{X:politician(X),human(X)} = 0.</t>
+  </si>
+  <si>
+    <t>:- #count{X:politician(X),not human(X)} = 0.</t>
+  </si>
+  <si>
+    <t>:- #count{X:politician(X),corrupt(X)} = 0.</t>
+  </si>
+  <si>
+    <t>:- #count{X:politician(X),not corrupt(X)} = 0.</t>
   </si>
 </sst>
 </file>
@@ -1891,7 +2064,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="237">
+  <cellStyleXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2129,8 +2302,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2149,17 +2330,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="237">
+  <cellStyles count="245">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2278,6 +2462,10 @@
     <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2396,6 +2584,10 @@
     <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2671,15 +2863,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I92"/>
+  <dimension ref="A3:I101"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A67" zoomScale="108" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E92"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A64" zoomScale="85" workbookViewId="0">
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.83203125" bestFit="1" customWidth="1"/>
@@ -2717,63 +2909,35 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A4" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" t="s">
-        <v>54</v>
-      </c>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>29</v>
@@ -2782,21 +2946,24 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>29</v>
@@ -2805,315 +2972,312 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D11" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E11" t="s">
         <v>32</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G11" t="s">
         <v>43</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+    <row r="12" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+    <row r="13" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>8</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="B13" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H13" s="9" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+    <row r="14" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>9</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+    <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>10</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B15" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G15" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H15" s="6" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+    <row r="16" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>11</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>12</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B17" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H17" s="6" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>13</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B18" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>14</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B19" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H19" s="6" t="s">
         <v>266</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>12</v>
@@ -3122,21 +3286,24 @@
         <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H20" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>60</v>
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>12</v>
@@ -3145,119 +3312,116 @@
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H21" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="H22" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="G23" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="H23" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" t="s">
-        <v>202</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" t="s">
-        <v>173</v>
-      </c>
-      <c r="E24" t="s">
-        <v>171</v>
-      </c>
-      <c r="F24" t="s">
-        <v>174</v>
-      </c>
       <c r="G24" t="s">
-        <v>175</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>179</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>203</v>
+        <v>26</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>172</v>
-      </c>
-      <c r="F25" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G25" t="s">
-        <v>176</v>
+        <v>48</v>
       </c>
       <c r="H25" t="s">
-        <v>178</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>12</v>
@@ -3266,24 +3430,24 @@
         <v>173</v>
       </c>
       <c r="E26" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F26" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G26" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H26" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
@@ -3292,70 +3456,76 @@
         <v>173</v>
       </c>
       <c r="E27" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F27" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G27" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="H27" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="E28" t="s">
-        <v>188</v>
+        <v>180</v>
+      </c>
+      <c r="F28" t="s">
+        <v>182</v>
       </c>
       <c r="G28" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="H28" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="E29" t="s">
-        <v>189</v>
+        <v>181</v>
+      </c>
+      <c r="F29" t="s">
+        <v>185</v>
       </c>
       <c r="G29" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="H29" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>28</v>
@@ -3364,21 +3534,21 @@
         <v>192</v>
       </c>
       <c r="E30" t="s">
-        <v>190</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>195</v>
+        <v>188</v>
+      </c>
+      <c r="G30" t="s">
+        <v>199</v>
       </c>
       <c r="H30" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>28</v>
@@ -3387,67 +3557,67 @@
         <v>192</v>
       </c>
       <c r="E31" t="s">
-        <v>191</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="G31" t="s">
+        <v>200</v>
+      </c>
+      <c r="H31" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>217</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="E32" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>222</v>
+        <v>195</v>
+      </c>
+      <c r="H32" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>217</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="E33" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>217</v>
@@ -3456,21 +3626,21 @@
         <v>230</v>
       </c>
       <c r="E34" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>217</v>
@@ -3479,67 +3649,67 @@
         <v>230</v>
       </c>
       <c r="E35" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="D36" t="s">
-        <v>295</v>
+        <v>230</v>
       </c>
       <c r="E36" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="D37" t="s">
-        <v>295</v>
+        <v>230</v>
       </c>
       <c r="E37" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>231</v>
@@ -3548,21 +3718,21 @@
         <v>295</v>
       </c>
       <c r="E38" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>231</v>
@@ -3571,159 +3741,159 @@
         <v>295</v>
       </c>
       <c r="E39" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>37</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>445</v>
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>211</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="D40" t="s">
-        <v>135</v>
+        <v>295</v>
       </c>
       <c r="E40" t="s">
-        <v>138</v>
-      </c>
-      <c r="G40" t="s">
-        <v>143</v>
-      </c>
-      <c r="H40" t="s">
-        <v>142</v>
+        <v>234</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>38</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>446</v>
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>212</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="D41" t="s">
-        <v>135</v>
+        <v>295</v>
       </c>
       <c r="E41" t="s">
-        <v>139</v>
-      </c>
-      <c r="G41" t="s">
-        <v>144</v>
-      </c>
-      <c r="H41" t="s">
-        <v>141</v>
+        <v>235</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>39</v>
-      </c>
-      <c r="B42" t="s">
-        <v>439</v>
+        <v>37</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>440</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="D42" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="E42" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="G42" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="H42" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>40</v>
-      </c>
-      <c r="B43" t="s">
-        <v>440</v>
+        <v>38</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>441</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="D43" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="E43" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="G43" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="H43" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>41</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>441</v>
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>434</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D44" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E44" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="G44" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="H44" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>42</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>442</v>
+        <v>40</v>
+      </c>
+      <c r="B45" t="s">
+        <v>435</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D45" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E45" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="G45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>43</v>
-      </c>
-      <c r="B46" t="s">
-        <v>443</v>
+        <v>41</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>436</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>77</v>
@@ -3732,21 +3902,21 @@
         <v>76</v>
       </c>
       <c r="E46" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>44</v>
-      </c>
-      <c r="B47" t="s">
-        <v>444</v>
+        <v>42</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>437</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>77</v>
@@ -3755,67 +3925,67 @@
         <v>76</v>
       </c>
       <c r="E47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G47" t="s">
+        <v>80</v>
+      </c>
+      <c r="H47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>43</v>
+      </c>
+      <c r="B48" t="s">
+        <v>438</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" t="s">
+        <v>76</v>
+      </c>
+      <c r="E48" t="s">
+        <v>120</v>
+      </c>
+      <c r="G48" t="s">
+        <v>125</v>
+      </c>
+      <c r="H48" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>44</v>
+      </c>
+      <c r="B49" t="s">
+        <v>439</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" t="s">
         <v>121</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G49" t="s">
         <v>124</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H49" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="6">
+    <row r="50" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>45</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B50" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="6">
-        <v>46</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="6">
-        <v>47</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>278</v>
@@ -3824,21 +3994,21 @@
         <v>277</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="6">
-        <v>48</v>
+      <c r="A51">
+        <v>46</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>278</v>
@@ -3847,67 +4017,67 @@
         <v>277</v>
       </c>
       <c r="E51" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>47</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>48</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E53" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="G53" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="H51" s="6" t="s">
+      <c r="H53" s="6" t="s">
         <v>287</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>49</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D52" t="s">
-        <v>89</v>
-      </c>
-      <c r="E52" t="s">
-        <v>87</v>
-      </c>
-      <c r="G52" t="s">
-        <v>84</v>
-      </c>
-      <c r="H52" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>50</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D53" t="s">
-        <v>89</v>
-      </c>
-      <c r="E53" t="s">
-        <v>92</v>
-      </c>
-      <c r="G53" t="s">
-        <v>93</v>
-      </c>
-      <c r="H53" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>91</v>
@@ -3916,21 +4086,21 @@
         <v>89</v>
       </c>
       <c r="E54" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="H54" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>91</v>
@@ -3939,73 +4109,67 @@
         <v>89</v>
       </c>
       <c r="E55" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="G55" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="H55" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>53</v>
-      </c>
-      <c r="B56" t="s">
-        <v>96</v>
+        <v>51</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D56" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E56" t="s">
-        <v>100</v>
-      </c>
-      <c r="F56" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="G56" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="H56" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>54</v>
-      </c>
-      <c r="B57" t="s">
-        <v>97</v>
+        <v>52</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D57" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E57" t="s">
-        <v>101</v>
-      </c>
-      <c r="F57" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="G57" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="H57" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>55</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>115</v>
+        <v>53</v>
+      </c>
+      <c r="B58" t="s">
+        <v>96</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>98</v>
@@ -4014,24 +4178,24 @@
         <v>99</v>
       </c>
       <c r="E58" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F58" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G58" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H58" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>56</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>116</v>
+        <v>54</v>
+      </c>
+      <c r="B59" t="s">
+        <v>97</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>98</v>
@@ -4040,591 +4204,1991 @@
         <v>99</v>
       </c>
       <c r="E59" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F59" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G59" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="H59" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>57</v>
-      </c>
-      <c r="B60" t="s">
-        <v>437</v>
+        <v>55</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="D60" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="E60" t="s">
-        <v>149</v>
+        <v>108</v>
+      </c>
+      <c r="F60" t="s">
+        <v>109</v>
       </c>
       <c r="G60" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="H60" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>438</v>
+        <v>116</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="D61" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="E61" t="s">
-        <v>150</v>
+        <v>114</v>
+      </c>
+      <c r="F61" t="s">
+        <v>112</v>
       </c>
       <c r="G61" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="H61" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>59</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>157</v>
+        <v>57</v>
+      </c>
+      <c r="B62" t="s">
+        <v>432</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D62" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E62" t="s">
-        <v>159</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
+      </c>
+      <c r="G62" t="s">
+        <v>153</v>
+      </c>
+      <c r="H62" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>158</v>
+        <v>433</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D63" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E63" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="G63" t="s">
-        <v>160</v>
+        <v>152</v>
+      </c>
+      <c r="H63" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
+        <v>59</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D64" t="s">
+        <v>155</v>
+      </c>
+      <c r="E64" t="s">
+        <v>159</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>60</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D65" t="s">
+        <v>155</v>
+      </c>
+      <c r="E65" t="s">
+        <v>161</v>
+      </c>
+      <c r="G65" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66">
         <v>61</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="B66" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D66" t="s">
         <v>162</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E66" t="s">
         <v>166</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G66" t="s">
         <v>169</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H66" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67">
         <v>62</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="B67" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D67" t="s">
         <v>162</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E67" t="s">
         <v>167</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G67" t="s">
         <v>168</v>
       </c>
-      <c r="H65" s="5" t="s">
+      <c r="H67" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68">
         <v>63</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E68" t="s">
         <v>297</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G68" t="s">
         <v>303</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H68" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69">
         <v>64</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E69" t="s">
         <v>299</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G69" t="s">
         <v>304</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H69" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70">
         <v>65</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="C68" s="1" t="s">
+      <c r="B70" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D70" t="s">
         <v>307</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E70" t="s">
         <v>308</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G70" t="s">
         <v>312</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H70" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71">
         <v>66</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="C69" s="1" t="s">
+      <c r="B71" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D71" t="s">
         <v>307</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E71" t="s">
         <v>309</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G71" t="s">
         <v>313</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H71" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72">
         <v>67</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D72" t="s">
         <v>316</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E72" t="s">
         <v>317</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F72" t="s">
         <v>321</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G72" t="s">
         <v>323</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H72" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73">
         <v>68</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D73" t="s">
         <v>316</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E73" t="s">
         <v>318</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F73" t="s">
         <v>322</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G73" t="s">
         <v>324</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H73" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>69</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D74" t="s">
+        <v>465</v>
+      </c>
+      <c r="E74" t="s">
+        <v>467</v>
+      </c>
+      <c r="F74" t="s">
+        <v>468</v>
+      </c>
+      <c r="H74" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>69</v>
+      </c>
+      <c r="B77" t="s">
         <v>326</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D77" t="s">
         <v>352</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E77" t="s">
         <v>327</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F77" t="s">
+        <v>409</v>
+      </c>
+      <c r="G77" t="s">
+        <v>413</v>
+      </c>
+      <c r="H77" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>70</v>
+      </c>
+      <c r="B78" t="s">
+        <v>328</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D78" t="s">
+        <v>352</v>
+      </c>
+      <c r="E78" t="s">
+        <v>329</v>
+      </c>
+      <c r="F78" t="s">
+        <v>410</v>
+      </c>
+      <c r="G78" t="s">
         <v>414</v>
       </c>
-      <c r="G74" t="s">
-        <v>418</v>
-      </c>
-      <c r="H74" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
-        <v>328</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D75" t="s">
-        <v>352</v>
-      </c>
-      <c r="E75" t="s">
-        <v>329</v>
-      </c>
-      <c r="F75" t="s">
-        <v>415</v>
-      </c>
-      <c r="G75" t="s">
-        <v>419</v>
-      </c>
-      <c r="H75" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
+      <c r="H78" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="17"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>71</v>
+      </c>
+      <c r="B81" t="s">
         <v>330</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D81" t="s">
         <v>345</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E81" t="s">
         <v>331</v>
       </c>
-      <c r="I78" t="s">
+      <c r="I81" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>72</v>
+      </c>
+      <c r="B82" t="s">
         <v>332</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D82" t="s">
         <v>345</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E82" t="s">
         <v>333</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I82" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>73</v>
+      </c>
+      <c r="B83" t="s">
         <v>334</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D80" t="s">
-        <v>344</v>
-      </c>
-      <c r="E80" t="s">
-        <v>335</v>
-      </c>
-      <c r="I80" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
-        <v>336</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D81" t="s">
-        <v>344</v>
-      </c>
-      <c r="E81" t="s">
-        <v>337</v>
-      </c>
-      <c r="I81" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
-        <v>338</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D82" t="s">
-        <v>343</v>
-      </c>
-      <c r="E82" t="s">
-        <v>339</v>
-      </c>
-      <c r="I82" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
-        <v>340</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>378</v>
       </c>
       <c r="D83" t="s">
+        <v>344</v>
+      </c>
+      <c r="E83" t="s">
+        <v>335</v>
+      </c>
+      <c r="I83" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>74</v>
+      </c>
+      <c r="B84" t="s">
+        <v>336</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D84" t="s">
+        <v>344</v>
+      </c>
+      <c r="E84" t="s">
+        <v>337</v>
+      </c>
+      <c r="I84" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>75</v>
+      </c>
+      <c r="B85" t="s">
+        <v>338</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D85" t="s">
         <v>343</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E85" t="s">
+        <v>339</v>
+      </c>
+      <c r="I85" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>76</v>
+      </c>
+      <c r="B86" t="s">
+        <v>340</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D86" t="s">
+        <v>343</v>
+      </c>
+      <c r="E86" t="s">
         <v>341</v>
       </c>
-      <c r="I83" t="s">
+      <c r="I86" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
+    <row r="87" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="17"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>77</v>
+      </c>
+      <c r="B89" t="s">
         <v>366</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D89" t="s">
         <v>379</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E89" t="s">
         <v>394</v>
       </c>
-      <c r="F85" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B86" t="s">
+      <c r="F89" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>78</v>
+      </c>
+      <c r="B90" t="s">
         <v>367</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D90" t="s">
         <v>380</v>
       </c>
-      <c r="E86" t="s">
-        <v>361</v>
-      </c>
-      <c r="F86" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B87" t="s">
+      <c r="E90" t="s">
+        <v>476</v>
+      </c>
+      <c r="F90" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>79</v>
+      </c>
+      <c r="B91" t="s">
         <v>368</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D91" t="s">
         <v>381</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E91" t="s">
         <v>399</v>
       </c>
-      <c r="F87" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
+      <c r="F91" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>80</v>
+      </c>
+      <c r="B92" t="s">
         <v>369</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D92" t="s">
         <v>382</v>
       </c>
-      <c r="E88" t="s">
-        <v>362</v>
-      </c>
-      <c r="F88" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
+      <c r="E92" t="s">
+        <v>475</v>
+      </c>
+      <c r="F92" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>81</v>
+      </c>
+      <c r="B93" t="s">
         <v>370</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D93" t="s">
         <v>383</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E93" t="s">
         <v>407</v>
       </c>
-      <c r="F89" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
+      <c r="F93" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>82</v>
+      </c>
+      <c r="B94" t="s">
         <v>387</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D94" t="s">
         <v>383</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E94" t="s">
         <v>408</v>
       </c>
-      <c r="F90" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B91" t="s">
+      <c r="F94" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>83</v>
+      </c>
+      <c r="B95" t="s">
         <v>371</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D95" t="s">
         <v>384</v>
       </c>
-      <c r="E91" t="s">
-        <v>363</v>
-      </c>
-      <c r="F91" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B92" t="s">
+      <c r="E95" t="s">
+        <v>473</v>
+      </c>
+      <c r="F95" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>84</v>
+      </c>
+      <c r="B96" t="s">
         <v>388</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D96" t="s">
         <v>384</v>
       </c>
-      <c r="E92" t="s">
-        <v>404</v>
-      </c>
-      <c r="F92" t="s">
-        <v>413</v>
-      </c>
+      <c r="E96" t="s">
+        <v>474</v>
+      </c>
+      <c r="F96" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="B97" s="17"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="17"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>85</v>
+      </c>
+      <c r="B99" t="s">
+        <v>446</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D99" t="s">
+        <v>451</v>
+      </c>
+      <c r="E99" t="s">
+        <v>462</v>
+      </c>
+      <c r="F99" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>86</v>
+      </c>
+      <c r="B100" t="s">
+        <v>449</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D100" t="s">
+        <v>450</v>
+      </c>
+      <c r="E100" t="s">
+        <v>463</v>
+      </c>
+      <c r="F100" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C101" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A4:H5"/>
+    <mergeCell ref="A97:H98"/>
+    <mergeCell ref="A75:H76"/>
+    <mergeCell ref="A87:H88"/>
+    <mergeCell ref="A79:H80"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H98"/>
+  <sheetViews>
+    <sheetView showRuler="0" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="55.33203125" customWidth="1"/>
+    <col min="3" max="3" width="54.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="15">
+        <v>3</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
+        <v>4</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
+        <v>5</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="15">
+        <v>6</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
+        <v>7</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="15">
+        <v>8</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
+        <v>9</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="15">
+        <v>10</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="15">
+        <v>11</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="15">
+        <v>12</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="15">
+        <v>13</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
+        <v>14</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
+        <v>15</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="15">
+        <v>16</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="15">
+        <v>17</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="15">
+        <v>18</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>19</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
+        <v>20</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
+        <v>21</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
+        <v>22</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
+        <v>23</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
+        <v>24</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
+        <v>25</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="15">
+        <v>26</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="15">
+        <v>27</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="15">
+        <v>28</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
+        <v>29</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
+        <v>30</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="15">
+        <v>31</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="15">
+        <v>32</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="15">
+        <v>33</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="15">
+        <v>34</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="15">
+        <v>35</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="15">
+        <v>36</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="15">
+        <v>37</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
+        <v>38</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
+        <v>39</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
+        <v>40</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="15">
+        <v>41</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="15">
+        <v>42</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="15">
+        <v>43</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="15">
+        <v>44</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="15">
+        <v>45</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="15">
+        <v>46</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="15">
+        <v>47</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="15">
+        <v>48</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="15">
+        <v>49</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="15">
+        <v>50</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="15">
+        <v>51</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="15">
+        <v>52</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="15">
+        <v>53</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="15">
+        <v>54</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="15">
+        <v>55</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="15">
+        <v>56</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="15">
+        <v>57</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="15">
+        <v>58</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="15">
+        <v>59</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="15">
+        <v>60</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="15">
+        <v>61</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="15">
+        <v>62</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="15">
+        <v>63</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="15">
+        <v>64</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="H70" s="5"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="15">
+        <v>65</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="15">
+        <v>66</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="15">
+        <v>67</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="15">
+        <v>68</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="15">
+        <v>69</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="15">
+        <v>70</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="15">
+        <v>71</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="15">
+        <v>72</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C78" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="15">
+        <v>73</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="15">
+        <v>74</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="15">
+        <v>75</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="15">
+        <v>76</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="15">
+        <v>77</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="15">
+        <v>78</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="16"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="15">
+        <v>79</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="15">
+        <v>80</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="15">
+        <v>81</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="15">
+        <v>82</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="15">
+        <v>83</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="15">
+        <v>84</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="15">
+        <v>85</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="15">
+        <v>86</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A79:C80"/>
+    <mergeCell ref="A6:C7"/>
+    <mergeCell ref="A88:C89"/>
+    <mergeCell ref="A1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:F56"/>
   <sheetViews>
@@ -4887,1150 +6451,62 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C47" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C48" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C49" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C53" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D53" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D54" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D55" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H92"/>
-  <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection sqref="A1:C92"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="55.33203125" customWidth="1"/>
-    <col min="3" max="3" width="54.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="16">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="16">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="16">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="16">
-        <v>4</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="16">
-        <v>5</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="16">
-        <v>6</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="16">
-        <v>7</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="16">
-        <v>8</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="16">
-        <v>9</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="16">
-        <v>10</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="16">
-        <v>11</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="16">
-        <v>12</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="16">
-        <v>13</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="16">
-        <v>14</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="16">
-        <v>15</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="16">
-        <v>16</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="16">
-        <v>17</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="16">
-        <v>18</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="16">
-        <v>19</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="16">
-        <v>20</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="16">
-        <v>21</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="16">
-        <v>22</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="16">
-        <v>23</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="16">
-        <v>24</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="16">
-        <v>25</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="16">
-        <v>26</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="16">
-        <v>27</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="16">
-        <v>28</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="16">
-        <v>29</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="16">
-        <v>30</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="16">
-        <v>31</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="16">
-        <v>32</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="16">
-        <v>33</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="16">
-        <v>34</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="16">
-        <v>35</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="16">
-        <v>36</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="16">
-        <v>37</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="16">
-        <v>38</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="16">
-        <v>39</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="16">
-        <v>40</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="16">
-        <v>41</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="16">
-        <v>42</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="16">
-        <v>43</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="16">
-        <v>44</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="16">
-        <v>45</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="16">
-        <v>46</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="D49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="16">
-        <v>47</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="D50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="16">
-        <v>48</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="D51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="16">
-        <v>49</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="16">
-        <v>50</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="16">
-        <v>51</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="16">
-        <v>52</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="16">
-        <v>53</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="16">
-        <v>54</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="16">
-        <v>55</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="16">
-        <v>56</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="16">
-        <v>57</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="16">
-        <v>58</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="16">
-        <v>59</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="G62" s="5"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="16">
-        <v>60</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="16">
-        <v>61</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="16">
-        <v>62</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="H65" s="5"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="16">
-        <v>63</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="16">
-        <v>64</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="16">
-        <v>65</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="16">
-        <v>66</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="16">
-        <v>67</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="16">
-        <v>68</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="16">
-        <v>68</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="16">
-        <v>69</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="16">
-        <v>70</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="16">
-        <v>71</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="16">
-        <v>72</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="16">
-        <v>73</v>
-      </c>
-      <c r="B80" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="16">
-        <v>74</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="14"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="16">
-        <v>75</v>
-      </c>
-      <c r="B85" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="C85" s="12" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="16">
-        <v>76</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="16">
-        <v>77</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="16">
-        <v>78</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="16">
-        <v>79</v>
-      </c>
-      <c r="B89" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="C89" s="12" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="16">
-        <v>80</v>
-      </c>
-      <c r="B90" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="C90" s="12" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="16">
-        <v>81</v>
-      </c>
-      <c r="B91" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="16">
-        <v>82</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>404</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A73:C74"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="A82:C83"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>